--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_household_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nzse_cvt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,116 +592,116 @@
           <t>Household Products</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0999</v>
+      </c>
       <c r="G2">
-        <v>-0.008006962576153175</v>
+        <v>0.03933170076625325</v>
       </c>
       <c r="H2">
-        <v>-0.01784160139251523</v>
+        <v>0.0327040050556916</v>
       </c>
       <c r="I2">
-        <v>-0.02490653124444935</v>
+        <v>0.006690891855596808</v>
       </c>
       <c r="J2">
-        <v>-0.02490653124444935</v>
+        <v>0.006690891855596808</v>
       </c>
       <c r="K2">
-        <v>-18.6</v>
+        <v>-7.154</v>
       </c>
       <c r="L2">
-        <v>-0.1618798955613577</v>
+        <v>-0.05651315269768544</v>
       </c>
       <c r="M2">
-        <v>0.616</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.005751633986928105</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.03311827956989247</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>0.616</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005751633986928105</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.03311827956989247</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>6.92</v>
+        <v>10.807</v>
       </c>
       <c r="V2">
-        <v>0.06461251167133521</v>
+        <v>0.05957552370452041</v>
       </c>
       <c r="W2">
-        <v>-0.1447470817120623</v>
+        <v>0.6748368102197263</v>
       </c>
       <c r="X2">
-        <v>0.09400812595260505</v>
+        <v>0.05353951541895075</v>
       </c>
       <c r="Y2">
-        <v>-0.2387552076646673</v>
+        <v>0.6212972948007756</v>
       </c>
       <c r="Z2">
-        <v>0.6456550537517679</v>
+        <v>0.8046145045445877</v>
       </c>
       <c r="AA2">
-        <v>-0.01608102776940503</v>
+        <v>8.535400940399033</v>
       </c>
       <c r="AB2">
-        <v>0.06583685150174788</v>
+        <v>0.05028904829165862</v>
       </c>
       <c r="AC2">
-        <v>-0.0819178792711529</v>
+        <v>8.485111892107373</v>
       </c>
       <c r="AD2">
-        <v>66.59999999999999</v>
+        <v>28.991</v>
       </c>
       <c r="AE2">
-        <v>6.608802199936151</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>73.20880219993614</v>
+        <v>28.991</v>
       </c>
       <c r="AG2">
-        <v>66.28880219993614</v>
+        <v>18.184</v>
       </c>
       <c r="AH2">
-        <v>0.4060190146388875</v>
+        <v>0.137795818262188</v>
       </c>
       <c r="AI2">
-        <v>0.3861044495325692</v>
+        <v>0.1764075915322409</v>
       </c>
       <c r="AJ2">
-        <v>0.3823130522783008</v>
+        <v>0.09110950777617444</v>
       </c>
       <c r="AK2">
-        <v>0.3628509323050305</v>
+        <v>0.1184363072674456</v>
       </c>
       <c r="AL2">
-        <v>3.21</v>
+        <v>3.061</v>
       </c>
       <c r="AM2">
-        <v>2.858</v>
+        <v>2.863</v>
       </c>
       <c r="AN2">
-        <v>40.36363636363635</v>
+        <v>5.963999177124049</v>
       </c>
       <c r="AO2">
-        <v>-1.632398753894081</v>
+        <v>0.2767069585102908</v>
       </c>
       <c r="AP2">
-        <v>40.17503163632492</v>
+        <v>3.740794075293149</v>
       </c>
       <c r="AQ2">
-        <v>-1.833449965010497</v>
+        <v>0.2958435207823961</v>
       </c>
     </row>
     <row r="3">
@@ -710,124 +712,8967 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Promisia Integrative Limited (NZSE:PIL)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Household Products</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>-0.0999</v>
+      </c>
+      <c r="G3">
+        <v>-17.44444444444445</v>
+      </c>
+      <c r="H3">
+        <v>-17.44444444444445</v>
+      </c>
+      <c r="I3">
+        <v>-9.477777777777778</v>
+      </c>
+      <c r="J3">
+        <v>-9.477777777777778</v>
+      </c>
+      <c r="K3">
+        <v>-0.894</v>
+      </c>
+      <c r="L3">
+        <v>-9.933333333333334</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.007</v>
+      </c>
+      <c r="V3">
+        <v>0.0003017241379310345</v>
+      </c>
+      <c r="W3">
+        <v>1.403453689167975</v>
+      </c>
+      <c r="X3">
+        <v>0.05133079098192091</v>
+      </c>
+      <c r="Y3">
+        <v>1.352122898186054</v>
+      </c>
+      <c r="Z3">
+        <v>-1.8</v>
+      </c>
+      <c r="AA3">
+        <v>17.06</v>
+      </c>
+      <c r="AB3">
+        <v>0.05047047006741304</v>
+      </c>
+      <c r="AC3">
+        <v>17.00952952993258</v>
+      </c>
+      <c r="AD3">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.6839999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.02892302540705705</v>
+      </c>
+      <c r="AI3">
+        <v>-1.04855842185129</v>
+      </c>
+      <c r="AJ3">
+        <v>0.02863841902528889</v>
+      </c>
+      <c r="AK3">
+        <v>-1.027027027027027</v>
+      </c>
+      <c r="AL3">
+        <v>0.041</v>
+      </c>
+      <c r="AM3">
+        <v>0.041</v>
+      </c>
+      <c r="AN3">
+        <v>-0.8138987043580683</v>
+      </c>
+      <c r="AO3">
+        <v>-20.80487804878049</v>
+      </c>
+      <c r="AP3">
+        <v>-0.8056537102473498</v>
+      </c>
+      <c r="AQ3">
+        <v>-20.80487804878049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Comvita Limited (NZSE:CVT)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Household Products</t>
         </is>
       </c>
+      <c r="G4">
+        <v>0.05177075098814229</v>
+      </c>
+      <c r="H4">
+        <v>0.04513833992094862</v>
+      </c>
+      <c r="I4">
+        <v>0.01343873517786561</v>
+      </c>
+      <c r="J4">
+        <v>0.01343873517786561</v>
+      </c>
+      <c r="K4">
+        <v>-6.26</v>
+      </c>
+      <c r="L4">
+        <v>-0.04948616600790514</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>10.8</v>
+      </c>
+      <c r="V4">
+        <v>0.06826801517067005</v>
+      </c>
+      <c r="W4">
+        <v>-0.05378006872852233</v>
+      </c>
+      <c r="X4">
+        <v>0.0557482398559806</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1095283085845029</v>
+      </c>
+      <c r="Z4">
+        <v>0.8037870123268521</v>
+      </c>
+      <c r="AA4">
+        <v>0.01080188079806837</v>
+      </c>
+      <c r="AB4">
+        <v>0.05010762651590418</v>
+      </c>
+      <c r="AC4">
+        <v>-0.03930574571783581</v>
+      </c>
+      <c r="AD4">
+        <v>28.3</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>28.3</v>
+      </c>
+      <c r="AG4">
+        <v>17.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.1517426273458445</v>
+      </c>
+      <c r="AI4">
+        <v>0.1715151515151515</v>
+      </c>
+      <c r="AJ4">
+        <v>0.09960159362549802</v>
+      </c>
+      <c r="AK4">
+        <v>0.1134889753566796</v>
+      </c>
+      <c r="AL4">
+        <v>3.02</v>
+      </c>
+      <c r="AM4">
+        <v>2.822</v>
+      </c>
+      <c r="AN4">
+        <v>4.956217162872155</v>
+      </c>
+      <c r="AO4">
+        <v>0.5629139072847682</v>
+      </c>
+      <c r="AP4">
+        <v>3.064798598949212</v>
+      </c>
+      <c r="AQ4">
+        <v>0.6024096385542168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Comvita Limited (NZSE:CVT)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NZSE:CVT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Household Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.151742627345845</v>
+      </c>
+      <c r="F2">
+        <v>0.04</v>
+      </c>
+      <c r="G2">
+        <v>158.2</v>
+      </c>
+      <c r="H2">
+        <v>179.150106434102</v>
+      </c>
+      <c r="I2">
+        <v>175.7</v>
+      </c>
+      <c r="J2">
+        <v>175.810106434102</v>
+      </c>
+      <c r="K2">
+        <v>28.3</v>
+      </c>
+      <c r="L2">
+        <v>7.46</v>
+      </c>
+      <c r="M2">
+        <v>0.0501076265159042</v>
+      </c>
+      <c r="N2">
+        <v>0.0500820694968513</v>
+      </c>
+      <c r="O2">
+        <v>0.018576</v>
+      </c>
+      <c r="P2">
+        <v>0.011664</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0557482398559806</v>
+      </c>
+      <c r="T2">
+        <v>0.0516828223925534</v>
+      </c>
+      <c r="U2">
+        <v>0.984072878304674</v>
+      </c>
+      <c r="V2">
+        <v>0.897941152384606</v>
+      </c>
+      <c r="W2">
+        <v>14.06679244034025</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>158.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>5.71</v>
+      </c>
+      <c r="AH2">
+        <v>4.01</v>
+      </c>
+      <c r="AI2">
+        <v>10.28</v>
+      </c>
+      <c r="AJ2">
+        <v>28.3</v>
+      </c>
+      <c r="AK2">
+        <v>28.3</v>
+      </c>
+      <c r="AL2">
+        <v>3.02</v>
+      </c>
+      <c r="AM2">
+        <v>28.3</v>
+      </c>
+      <c r="AN2">
+        <v>10.8</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0504483712549062</v>
+      </c>
+      <c r="C2">
+        <v>185.0450493223224</v>
+      </c>
+      <c r="D2">
+        <v>174.2450493223224</v>
+      </c>
+      <c r="E2">
+        <v>-28.3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10.8</v>
+      </c>
+      <c r="H2">
+        <v>158.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.71</v>
+      </c>
+      <c r="K2">
+        <v>4.01</v>
+      </c>
+      <c r="L2">
+        <v>1.7</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.7</v>
+      </c>
+      <c r="O2">
+        <v>0.4760000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1.224</v>
+      </c>
+      <c r="Q2">
+        <v>5.234</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.0504483712549062</v>
+      </c>
+      <c r="T2">
+        <v>0.8717875265869959</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05035679581539248</v>
+      </c>
+      <c r="C3">
+        <v>183.5686955051987</v>
+      </c>
+      <c r="D3">
+        <v>174.6336955051987</v>
+      </c>
+      <c r="E3">
+        <v>-26.435</v>
+      </c>
+      <c r="F3">
+        <v>1.865</v>
+      </c>
       <c r="G3">
-        <v>-0.008006962576153175</v>
+        <v>10.8</v>
       </c>
       <c r="H3">
-        <v>-0.01784160139251523</v>
+        <v>158.2</v>
       </c>
       <c r="I3">
-        <v>-0.02490653124444935</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.02490653124444935</v>
+        <v>5.71</v>
       </c>
       <c r="K3">
-        <v>-18.6</v>
+        <v>4.01</v>
       </c>
       <c r="L3">
-        <v>-0.1618798955613577</v>
+        <v>1.7</v>
       </c>
       <c r="M3">
-        <v>0.616</v>
+        <v>0.030213</v>
       </c>
       <c r="N3">
-        <v>0.005751633986928105</v>
+        <v>1.669787</v>
       </c>
       <c r="O3">
-        <v>-0.03311827956989247</v>
+        <v>0.4675403600000001</v>
       </c>
       <c r="P3">
-        <v>0.616</v>
+        <v>1.20224664</v>
       </c>
       <c r="Q3">
-        <v>0.005751633986928105</v>
+        <v>5.21224664</v>
       </c>
       <c r="R3">
-        <v>-0.03311827956989247</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.05074763213676008</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.8781277995076286</v>
       </c>
       <c r="U3">
-        <v>6.92</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.06461251167133521</v>
+        <v>0.28</v>
       </c>
       <c r="W3">
-        <v>-0.1447470817120623</v>
-      </c>
-      <c r="X3">
-        <v>0.09400812595260505</v>
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>-0.2387552076646673</v>
+        <v>56.26716976136101</v>
       </c>
       <c r="Z3">
-        <v>0.6456550537517679</v>
-      </c>
-      <c r="AA3">
-        <v>-0.01608102776940503</v>
-      </c>
-      <c r="AB3">
-        <v>0.06583685150174788</v>
-      </c>
-      <c r="AC3">
-        <v>-0.0819178792711529</v>
-      </c>
-      <c r="AD3">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="AE3">
-        <v>6.608802199936151</v>
-      </c>
-      <c r="AF3">
-        <v>73.20880219993614</v>
-      </c>
-      <c r="AG3">
-        <v>66.28880219993614</v>
-      </c>
-      <c r="AH3">
-        <v>0.4060190146388875</v>
-      </c>
-      <c r="AI3">
-        <v>0.3861044495325692</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3823130522783008</v>
-      </c>
-      <c r="AK3">
-        <v>0.3628509323050305</v>
-      </c>
-      <c r="AL3">
-        <v>3.21</v>
-      </c>
-      <c r="AM3">
-        <v>2.858</v>
-      </c>
-      <c r="AN3">
-        <v>40.36363636363635</v>
-      </c>
-      <c r="AO3">
-        <v>-1.632398753894081</v>
-      </c>
-      <c r="AP3">
-        <v>40.17503163632492</v>
-      </c>
-      <c r="AQ3">
-        <v>-1.833449965010497</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05026522037587873</v>
+      </c>
+      <c r="C4">
+        <v>182.0940792813156</v>
+      </c>
+      <c r="D4">
+        <v>175.0240792813156</v>
+      </c>
+      <c r="E4">
+        <v>-24.57</v>
+      </c>
+      <c r="F4">
+        <v>3.73</v>
+      </c>
+      <c r="G4">
+        <v>10.8</v>
+      </c>
+      <c r="H4">
+        <v>158.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.71</v>
+      </c>
+      <c r="K4">
+        <v>4.01</v>
+      </c>
+      <c r="L4">
+        <v>1.7</v>
+      </c>
+      <c r="M4">
+        <v>0.06042599999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.639574</v>
+      </c>
+      <c r="O4">
+        <v>0.4590807200000001</v>
+      </c>
+      <c r="P4">
+        <v>1.18049328</v>
+      </c>
+      <c r="Q4">
+        <v>5.19049328</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05105300038354972</v>
+      </c>
+      <c r="T4">
+        <v>0.8845974657531721</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>28.13358488068051</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05017364493636499</v>
+      </c>
+      <c r="C5">
+        <v>180.6212123296559</v>
+      </c>
+      <c r="D5">
+        <v>175.4162123296559</v>
+      </c>
+      <c r="E5">
+        <v>-22.705</v>
+      </c>
+      <c r="F5">
+        <v>5.595</v>
+      </c>
+      <c r="G5">
+        <v>10.8</v>
+      </c>
+      <c r="H5">
+        <v>158.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.71</v>
+      </c>
+      <c r="K5">
+        <v>4.01</v>
+      </c>
+      <c r="L5">
+        <v>1.7</v>
+      </c>
+      <c r="M5">
+        <v>0.090639</v>
+      </c>
+      <c r="N5">
+        <v>1.609361</v>
+      </c>
+      <c r="O5">
+        <v>0.4506210800000001</v>
+      </c>
+      <c r="P5">
+        <v>1.15873992</v>
+      </c>
+      <c r="Q5">
+        <v>5.16873992</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05136466488285051</v>
+      </c>
+      <c r="T5">
+        <v>0.8912005271790362</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>18.755723253787</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05008206949685125</v>
+      </c>
+      <c r="C6">
+        <v>179.150106434102</v>
+      </c>
+      <c r="D6">
+        <v>175.810106434102</v>
+      </c>
+      <c r="E6">
+        <v>-20.84</v>
+      </c>
+      <c r="F6">
+        <v>7.46</v>
+      </c>
+      <c r="G6">
+        <v>10.8</v>
+      </c>
+      <c r="H6">
+        <v>158.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.71</v>
+      </c>
+      <c r="K6">
+        <v>4.01</v>
+      </c>
+      <c r="L6">
+        <v>1.7</v>
+      </c>
+      <c r="M6">
+        <v>0.120852</v>
+      </c>
+      <c r="N6">
+        <v>1.579148</v>
+      </c>
+      <c r="O6">
+        <v>0.4421614400000001</v>
+      </c>
+      <c r="P6">
+        <v>1.13698656</v>
+      </c>
+      <c r="Q6">
+        <v>5.14698656</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0516828223925534</v>
+      </c>
+      <c r="T6">
+        <v>0.8979411523846058</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>14.06679244034025</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05012729405733751</v>
+      </c>
+      <c r="C7">
+        <v>177.0903608606786</v>
+      </c>
+      <c r="D7">
+        <v>175.6153608606786</v>
+      </c>
+      <c r="E7">
+        <v>-18.975</v>
+      </c>
+      <c r="F7">
+        <v>9.325000000000001</v>
+      </c>
+      <c r="G7">
+        <v>10.8</v>
+      </c>
+      <c r="H7">
+        <v>158.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.71</v>
+      </c>
+      <c r="K7">
+        <v>4.01</v>
+      </c>
+      <c r="L7">
+        <v>1.7</v>
+      </c>
+      <c r="M7">
+        <v>0.1865</v>
+      </c>
+      <c r="N7">
+        <v>1.5135</v>
+      </c>
+      <c r="O7">
+        <v>0.42378</v>
+      </c>
+      <c r="P7">
+        <v>1.08972</v>
+      </c>
+      <c r="Q7">
+        <v>5.09972</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05200767795509212</v>
+      </c>
+      <c r="T7">
+        <v>0.9048236854892399</v>
+      </c>
+      <c r="U7">
+        <v>0.02</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.0144</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>9.115281501340483</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05011059861782378</v>
+      </c>
+      <c r="C8">
+        <v>175.2972043458082</v>
+      </c>
+      <c r="D8">
+        <v>175.6872043458082</v>
+      </c>
+      <c r="E8">
+        <v>-17.11</v>
+      </c>
+      <c r="F8">
+        <v>11.19</v>
+      </c>
+      <c r="G8">
+        <v>10.8</v>
+      </c>
+      <c r="H8">
+        <v>158.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.71</v>
+      </c>
+      <c r="K8">
+        <v>4.01</v>
+      </c>
+      <c r="L8">
+        <v>1.7</v>
+      </c>
+      <c r="M8">
+        <v>0.236109</v>
+      </c>
+      <c r="N8">
+        <v>1.463891</v>
+      </c>
+      <c r="O8">
+        <v>0.4098894800000001</v>
+      </c>
+      <c r="P8">
+        <v>1.05400152</v>
+      </c>
+      <c r="Q8">
+        <v>5.06400152</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05233944533811041</v>
+      </c>
+      <c r="T8">
+        <v>0.9118526554684409</v>
+      </c>
+      <c r="U8">
+        <v>0.0211</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.015192</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>7.200064377046196</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05012990317831004</v>
+      </c>
+      <c r="C9">
+        <v>173.3491386513307</v>
+      </c>
+      <c r="D9">
+        <v>175.6041386513307</v>
+      </c>
+      <c r="E9">
+        <v>-15.245</v>
+      </c>
+      <c r="F9">
+        <v>13.055</v>
+      </c>
+      <c r="G9">
+        <v>10.8</v>
+      </c>
+      <c r="H9">
+        <v>158.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.71</v>
+      </c>
+      <c r="K9">
+        <v>4.01</v>
+      </c>
+      <c r="L9">
+        <v>1.7</v>
+      </c>
+      <c r="M9">
+        <v>0.295043</v>
+      </c>
+      <c r="N9">
+        <v>1.404957</v>
+      </c>
+      <c r="O9">
+        <v>0.3933879600000001</v>
+      </c>
+      <c r="P9">
+        <v>1.01156904</v>
+      </c>
+      <c r="Q9">
+        <v>5.02156904</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05267834750355918</v>
+      </c>
+      <c r="T9">
+        <v>0.9190327860923556</v>
+      </c>
+      <c r="U9">
+        <v>0.0226</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.016272</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>5.76187199831889</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05008440773879631</v>
+      </c>
+      <c r="C10">
+        <v>171.6800269309777</v>
+      </c>
+      <c r="D10">
+        <v>175.8000269309777</v>
+      </c>
+      <c r="E10">
+        <v>-13.38</v>
+      </c>
+      <c r="F10">
+        <v>14.92</v>
+      </c>
+      <c r="G10">
+        <v>10.8</v>
+      </c>
+      <c r="H10">
+        <v>158.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.71</v>
+      </c>
+      <c r="K10">
+        <v>4.01</v>
+      </c>
+      <c r="L10">
+        <v>1.7</v>
+      </c>
+      <c r="M10">
+        <v>0.337192</v>
+      </c>
+      <c r="N10">
+        <v>1.362808</v>
+      </c>
+      <c r="O10">
+        <v>0.3815862400000001</v>
+      </c>
+      <c r="P10">
+        <v>0.9812217600000002</v>
+      </c>
+      <c r="Q10">
+        <v>4.99122176</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05302461710738729</v>
+      </c>
+      <c r="T10">
+        <v>0.9263690065124426</v>
+      </c>
+      <c r="U10">
+        <v>0.0226</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.016272</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>5.041637998529029</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05590558677905529</v>
+      </c>
+      <c r="C11">
+        <v>147.8570707550568</v>
+      </c>
+      <c r="D11">
+        <v>153.8420707550568</v>
+      </c>
+      <c r="E11">
+        <v>-11.515</v>
+      </c>
+      <c r="F11">
+        <v>16.785</v>
+      </c>
+      <c r="G11">
+        <v>10.8</v>
+      </c>
+      <c r="H11">
+        <v>158.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.71</v>
+      </c>
+      <c r="K11">
+        <v>4.01</v>
+      </c>
+      <c r="L11">
+        <v>1.7</v>
+      </c>
+      <c r="M11">
+        <v>1.829565</v>
+      </c>
+      <c r="N11">
+        <v>-0.1295649999999999</v>
+      </c>
+      <c r="O11">
+        <v>-0.03627819999999998</v>
+      </c>
+      <c r="P11">
+        <v>-0.09328679999999995</v>
+      </c>
+      <c r="Q11">
+        <v>3.9167132</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05345919296640728</v>
+      </c>
+      <c r="T11">
+        <v>0.9355761221696458</v>
+      </c>
+      <c r="U11">
+        <v>0.109</v>
+      </c>
+      <c r="V11">
+        <v>0.2601711335754675</v>
+      </c>
+      <c r="W11">
+        <v>0.08064134644027404</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.9291826199123836</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05690258677905529</v>
+      </c>
+      <c r="C12">
+        <v>142.7699655099217</v>
+      </c>
+      <c r="D12">
+        <v>150.6199655099217</v>
+      </c>
+      <c r="E12">
+        <v>-9.649999999999999</v>
+      </c>
+      <c r="F12">
+        <v>18.65</v>
+      </c>
+      <c r="G12">
+        <v>10.8</v>
+      </c>
+      <c r="H12">
+        <v>158.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.71</v>
+      </c>
+      <c r="K12">
+        <v>4.01</v>
+      </c>
+      <c r="L12">
+        <v>1.7</v>
+      </c>
+      <c r="M12">
+        <v>2.03285</v>
+      </c>
+      <c r="N12">
+        <v>-0.3328500000000001</v>
+      </c>
+      <c r="O12">
+        <v>-0.09319800000000003</v>
+      </c>
+      <c r="P12">
+        <v>-0.2396520000000001</v>
+      </c>
+      <c r="Q12">
+        <v>3.770348</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05394985066603403</v>
+      </c>
+      <c r="T12">
+        <v>0.945971412415975</v>
+      </c>
+      <c r="U12">
+        <v>0.109</v>
+      </c>
+      <c r="V12">
+        <v>0.2341540202179207</v>
+      </c>
+      <c r="W12">
+        <v>0.08347721179624665</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.8362643579211452</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06154600458540933</v>
+      </c>
+      <c r="C13">
+        <v>127.5184599696202</v>
+      </c>
+      <c r="D13">
+        <v>137.2334599696202</v>
+      </c>
+      <c r="E13">
+        <v>-7.785</v>
+      </c>
+      <c r="F13">
+        <v>20.515</v>
+      </c>
+      <c r="G13">
+        <v>10.8</v>
+      </c>
+      <c r="H13">
+        <v>158.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.71</v>
+      </c>
+      <c r="K13">
+        <v>4.01</v>
+      </c>
+      <c r="L13">
+        <v>1.7</v>
+      </c>
+      <c r="M13">
+        <v>2.876203</v>
+      </c>
+      <c r="N13">
+        <v>-1.176203</v>
+      </c>
+      <c r="O13">
+        <v>-0.32933684</v>
+      </c>
+      <c r="P13">
+        <v>-0.8468661599999997</v>
+      </c>
+      <c r="Q13">
+        <v>3.16313384</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0546924532649266</v>
+      </c>
+      <c r="T13">
+        <v>0.9617045183247162</v>
+      </c>
+      <c r="U13">
+        <v>0.1402</v>
+      </c>
+      <c r="V13">
+        <v>0.1654959681218607</v>
+      </c>
+      <c r="W13">
+        <v>0.1169974652693151</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.5910570290066453</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06285500458540932</v>
+      </c>
+      <c r="C14">
+        <v>122.2991777603125</v>
+      </c>
+      <c r="D14">
+        <v>133.8791777603125</v>
+      </c>
+      <c r="E14">
+        <v>-5.920000000000002</v>
+      </c>
+      <c r="F14">
+        <v>22.38</v>
+      </c>
+      <c r="G14">
+        <v>10.8</v>
+      </c>
+      <c r="H14">
+        <v>158.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.71</v>
+      </c>
+      <c r="K14">
+        <v>4.01</v>
+      </c>
+      <c r="L14">
+        <v>1.7</v>
+      </c>
+      <c r="M14">
+        <v>3.137675999999999</v>
+      </c>
+      <c r="N14">
+        <v>-1.437675999999999</v>
+      </c>
+      <c r="O14">
+        <v>-0.4025492799999998</v>
+      </c>
+      <c r="P14">
+        <v>-1.035126719999999</v>
+      </c>
+      <c r="Q14">
+        <v>2.974873280000001</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05520827659748258</v>
+      </c>
+      <c r="T14">
+        <v>0.9726329787602243</v>
+      </c>
+      <c r="U14">
+        <v>0.1402</v>
+      </c>
+      <c r="V14">
+        <v>0.151704637445039</v>
+      </c>
+      <c r="W14">
+        <v>0.1189310098302055</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.5418022765894249</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06416400458540936</v>
+      </c>
+      <c r="C15">
+        <v>117.2399551545704</v>
+      </c>
+      <c r="D15">
+        <v>130.6849551545704</v>
+      </c>
+      <c r="E15">
+        <v>-4.055</v>
+      </c>
+      <c r="F15">
+        <v>24.245</v>
+      </c>
+      <c r="G15">
+        <v>10.8</v>
+      </c>
+      <c r="H15">
+        <v>158.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.71</v>
+      </c>
+      <c r="K15">
+        <v>4.01</v>
+      </c>
+      <c r="L15">
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <v>3.399149</v>
+      </c>
+      <c r="N15">
+        <v>-1.699149</v>
+      </c>
+      <c r="O15">
+        <v>-0.47576172</v>
+      </c>
+      <c r="P15">
+        <v>-1.22338728</v>
+      </c>
+      <c r="Q15">
+        <v>2.78661272</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05573595793768354</v>
+      </c>
+      <c r="T15">
+        <v>0.9838126681712615</v>
+      </c>
+      <c r="U15">
+        <v>0.1402</v>
+      </c>
+      <c r="V15">
+        <v>0.1400350499492667</v>
+      </c>
+      <c r="W15">
+        <v>0.1205670859971128</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.5001251783902383</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07174038793563682</v>
+      </c>
+      <c r="C16">
+        <v>99.51792173288631</v>
+      </c>
+      <c r="D16">
+        <v>114.8279217328863</v>
+      </c>
+      <c r="E16">
+        <v>-2.189999999999998</v>
+      </c>
+      <c r="F16">
+        <v>26.11</v>
+      </c>
+      <c r="G16">
+        <v>10.8</v>
+      </c>
+      <c r="H16">
+        <v>158.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.71</v>
+      </c>
+      <c r="K16">
+        <v>4.01</v>
+      </c>
+      <c r="L16">
+        <v>1.7</v>
+      </c>
+      <c r="M16">
+        <v>4.796407</v>
+      </c>
+      <c r="N16">
+        <v>-3.096407</v>
+      </c>
+      <c r="O16">
+        <v>-0.8669939600000002</v>
+      </c>
+      <c r="P16">
+        <v>-2.22941304</v>
+      </c>
+      <c r="Q16">
+        <v>1.78058696</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05648217064652576</v>
+      </c>
+      <c r="T16">
+        <v>0.9996222594602915</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.09924095265476847</v>
+      </c>
+      <c r="W16">
+        <v>0.165469436997319</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.3544319737670302</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07348438793563682</v>
+      </c>
+      <c r="C17">
+        <v>94.53284998423975</v>
+      </c>
+      <c r="D17">
+        <v>111.7078499842397</v>
+      </c>
+      <c r="E17">
+        <v>-0.3250000000000028</v>
+      </c>
+      <c r="F17">
+        <v>27.975</v>
+      </c>
+      <c r="G17">
+        <v>10.8</v>
+      </c>
+      <c r="H17">
+        <v>158.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.71</v>
+      </c>
+      <c r="K17">
+        <v>4.01</v>
+      </c>
+      <c r="L17">
+        <v>1.7</v>
+      </c>
+      <c r="M17">
+        <v>5.1390075</v>
+      </c>
+      <c r="N17">
+        <v>-3.4390075</v>
+      </c>
+      <c r="O17">
+        <v>-0.9629221</v>
+      </c>
+      <c r="P17">
+        <v>-2.4760854</v>
+      </c>
+      <c r="Q17">
+        <v>1.5339146</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05703725500707311</v>
+      </c>
+      <c r="T17">
+        <v>1.011382521336295</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.09262488914445058</v>
+      </c>
+      <c r="W17">
+        <v>0.1666848078641644</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.3308031755158949</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07522838793563681</v>
+      </c>
+      <c r="C18">
+        <v>89.71284840642615</v>
+      </c>
+      <c r="D18">
+        <v>108.7528484064262</v>
+      </c>
+      <c r="E18">
+        <v>1.539999999999999</v>
+      </c>
+      <c r="F18">
+        <v>29.84</v>
+      </c>
+      <c r="G18">
+        <v>10.8</v>
+      </c>
+      <c r="H18">
+        <v>158.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.71</v>
+      </c>
+      <c r="K18">
+        <v>4.01</v>
+      </c>
+      <c r="L18">
+        <v>1.7</v>
+      </c>
+      <c r="M18">
+        <v>5.481608</v>
+      </c>
+      <c r="N18">
+        <v>-3.781608</v>
+      </c>
+      <c r="O18">
+        <v>-1.05885024</v>
+      </c>
+      <c r="P18">
+        <v>-2.72275776</v>
+      </c>
+      <c r="Q18">
+        <v>1.287242239999999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05760555566191923</v>
+      </c>
+      <c r="T18">
+        <v>1.023422789447441</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.08683583357292241</v>
+      </c>
+      <c r="W18">
+        <v>0.1677482573726541</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.3101279770461515</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07697238793563681</v>
+      </c>
+      <c r="C19">
+        <v>85.0451548203627</v>
+      </c>
+      <c r="D19">
+        <v>105.9501548203627</v>
+      </c>
+      <c r="E19">
+        <v>3.405000000000001</v>
+      </c>
+      <c r="F19">
+        <v>31.705</v>
+      </c>
+      <c r="G19">
+        <v>10.8</v>
+      </c>
+      <c r="H19">
+        <v>158.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.71</v>
+      </c>
+      <c r="K19">
+        <v>4.01</v>
+      </c>
+      <c r="L19">
+        <v>1.7</v>
+      </c>
+      <c r="M19">
+        <v>5.8242085</v>
+      </c>
+      <c r="N19">
+        <v>-4.1242085</v>
+      </c>
+      <c r="O19">
+        <v>-1.15477838</v>
+      </c>
+      <c r="P19">
+        <v>-2.96943012</v>
+      </c>
+      <c r="Q19">
+        <v>1.04056988</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05818755030844837</v>
+      </c>
+      <c r="T19">
+        <v>1.035753184501025</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.08172784336275052</v>
+      </c>
+      <c r="W19">
+        <v>0.1686865951742627</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2918851548669661</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07871638793563682</v>
+      </c>
+      <c r="C20">
+        <v>80.51828958217084</v>
+      </c>
+      <c r="D20">
+        <v>103.2882895821708</v>
+      </c>
+      <c r="E20">
+        <v>5.27</v>
+      </c>
+      <c r="F20">
+        <v>33.57</v>
+      </c>
+      <c r="G20">
+        <v>10.8</v>
+      </c>
+      <c r="H20">
+        <v>158.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.71</v>
+      </c>
+      <c r="K20">
+        <v>4.01</v>
+      </c>
+      <c r="L20">
+        <v>1.7</v>
+      </c>
+      <c r="M20">
+        <v>6.166809</v>
+      </c>
+      <c r="N20">
+        <v>-4.466809</v>
+      </c>
+      <c r="O20">
+        <v>-1.25070652</v>
+      </c>
+      <c r="P20">
+        <v>-3.21610248</v>
+      </c>
+      <c r="Q20">
+        <v>0.7938975200000002</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05878373994635627</v>
+      </c>
+      <c r="T20">
+        <v>1.048384320897379</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.07718740762037549</v>
+      </c>
+      <c r="W20">
+        <v>0.169520673220137</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.2756693129299124</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08046038793563681</v>
+      </c>
+      <c r="C21">
+        <v>76.12189842120308</v>
+      </c>
+      <c r="D21">
+        <v>100.7568984212031</v>
+      </c>
+      <c r="E21">
+        <v>7.135000000000002</v>
+      </c>
+      <c r="F21">
+        <v>35.435</v>
+      </c>
+      <c r="G21">
+        <v>10.8</v>
+      </c>
+      <c r="H21">
+        <v>158.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.71</v>
+      </c>
+      <c r="K21">
+        <v>4.01</v>
+      </c>
+      <c r="L21">
+        <v>1.7</v>
+      </c>
+      <c r="M21">
+        <v>6.5094095</v>
+      </c>
+      <c r="N21">
+        <v>-4.8094095</v>
+      </c>
+      <c r="O21">
+        <v>-1.34663466</v>
+      </c>
+      <c r="P21">
+        <v>-3.46277484</v>
+      </c>
+      <c r="Q21">
+        <v>0.54722516</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05939465031606438</v>
+      </c>
+      <c r="T21">
+        <v>1.061327337204754</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.07312491248246099</v>
+      </c>
+      <c r="W21">
+        <v>0.1702669535769719</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.2611604017230749</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08220438793563682</v>
+      </c>
+      <c r="C22">
+        <v>71.84661783559946</v>
+      </c>
+      <c r="D22">
+        <v>98.34661783559947</v>
+      </c>
+      <c r="E22">
+        <v>9.000000000000004</v>
+      </c>
+      <c r="F22">
+        <v>37.3</v>
+      </c>
+      <c r="G22">
+        <v>10.8</v>
+      </c>
+      <c r="H22">
+        <v>158.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.71</v>
+      </c>
+      <c r="K22">
+        <v>4.01</v>
+      </c>
+      <c r="L22">
+        <v>1.7</v>
+      </c>
+      <c r="M22">
+        <v>6.852010000000001</v>
+      </c>
+      <c r="N22">
+        <v>-5.152010000000001</v>
+      </c>
+      <c r="O22">
+        <v>-1.4425628</v>
+      </c>
+      <c r="P22">
+        <v>-3.7094472</v>
+      </c>
+      <c r="Q22">
+        <v>0.3005527999999993</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06002083344501519</v>
+      </c>
+      <c r="T22">
+        <v>1.074593928919813</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.06946866685833793</v>
+      </c>
+      <c r="W22">
+        <v>0.1709386058981233</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.2481023816369211</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08394838793563682</v>
+      </c>
+      <c r="C23">
+        <v>67.68395935631432</v>
+      </c>
+      <c r="D23">
+        <v>96.04895935631431</v>
+      </c>
+      <c r="E23">
+        <v>10.865</v>
+      </c>
+      <c r="F23">
+        <v>39.165</v>
+      </c>
+      <c r="G23">
+        <v>10.8</v>
+      </c>
+      <c r="H23">
+        <v>158.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.71</v>
+      </c>
+      <c r="K23">
+        <v>4.01</v>
+      </c>
+      <c r="L23">
+        <v>1.7</v>
+      </c>
+      <c r="M23">
+        <v>7.1946105</v>
+      </c>
+      <c r="N23">
+        <v>-5.494610499999999</v>
+      </c>
+      <c r="O23">
+        <v>-1.53849094</v>
+      </c>
+      <c r="P23">
+        <v>-3.956119559999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.05388044000000036</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06066286931140778</v>
+      </c>
+      <c r="T23">
+        <v>1.088196383716266</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.06616063510317899</v>
+      </c>
+      <c r="W23">
+        <v>0.171546291331546</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.2362879825113535</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08569238793563681</v>
+      </c>
+      <c r="C24">
+        <v>63.62620966430907</v>
+      </c>
+      <c r="D24">
+        <v>93.85620966430908</v>
+      </c>
+      <c r="E24">
+        <v>12.73</v>
+      </c>
+      <c r="F24">
+        <v>41.03</v>
+      </c>
+      <c r="G24">
+        <v>10.8</v>
+      </c>
+      <c r="H24">
+        <v>158.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.71</v>
+      </c>
+      <c r="K24">
+        <v>4.01</v>
+      </c>
+      <c r="L24">
+        <v>1.7</v>
+      </c>
+      <c r="M24">
+        <v>7.537211</v>
+      </c>
+      <c r="N24">
+        <v>-5.837211</v>
+      </c>
+      <c r="O24">
+        <v>-1.63441908</v>
+      </c>
+      <c r="P24">
+        <v>-4.202791919999999</v>
+      </c>
+      <c r="Q24">
+        <v>-0.1927919199999995</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.061321367635913</v>
+      </c>
+      <c r="T24">
+        <v>1.102147619404937</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.06315333350757994</v>
+      </c>
+      <c r="W24">
+        <v>0.1720987326346576</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.2255476196699283</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08743638793563682</v>
+      </c>
+      <c r="C25">
+        <v>59.66634408401904</v>
+      </c>
+      <c r="D25">
+        <v>91.76134408401904</v>
+      </c>
+      <c r="E25">
+        <v>14.595</v>
+      </c>
+      <c r="F25">
+        <v>42.895</v>
+      </c>
+      <c r="G25">
+        <v>10.8</v>
+      </c>
+      <c r="H25">
+        <v>158.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.71</v>
+      </c>
+      <c r="K25">
+        <v>4.01</v>
+      </c>
+      <c r="L25">
+        <v>1.7</v>
+      </c>
+      <c r="M25">
+        <v>7.879811500000001</v>
+      </c>
+      <c r="N25">
+        <v>-6.1798115</v>
+      </c>
+      <c r="O25">
+        <v>-1.73034722</v>
+      </c>
+      <c r="P25">
+        <v>-4.44946428</v>
+      </c>
+      <c r="Q25">
+        <v>-0.4394642800000002</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06199696981300279</v>
+      </c>
+      <c r="T25">
+        <v>1.116461224851754</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.06040753639855472</v>
+      </c>
+      <c r="W25">
+        <v>0.1726031355635855</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2157412014234097</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08918038793563682</v>
+      </c>
+      <c r="C26">
+        <v>55.79795140881728</v>
+      </c>
+      <c r="D26">
+        <v>89.75795140881728</v>
+      </c>
+      <c r="E26">
+        <v>16.46</v>
+      </c>
+      <c r="F26">
+        <v>44.76</v>
+      </c>
+      <c r="G26">
+        <v>10.8</v>
+      </c>
+      <c r="H26">
+        <v>158.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>5.71</v>
+      </c>
+      <c r="K26">
+        <v>4.01</v>
+      </c>
+      <c r="L26">
+        <v>1.7</v>
+      </c>
+      <c r="M26">
+        <v>8.222412</v>
+      </c>
+      <c r="N26">
+        <v>-6.522412</v>
+      </c>
+      <c r="O26">
+        <v>-1.82627536</v>
+      </c>
+      <c r="P26">
+        <v>-4.69613664</v>
+      </c>
+      <c r="Q26">
+        <v>-0.68613664</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06269035099475283</v>
+      </c>
+      <c r="T26">
+        <v>1.131151504126119</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.05789055571528161</v>
+      </c>
+      <c r="W26">
+        <v>0.1730655049151028</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2067519846974343</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09092438793563681</v>
+      </c>
+      <c r="C27">
+        <v>52.01516836362727</v>
+      </c>
+      <c r="D27">
+        <v>87.84016836362727</v>
+      </c>
+      <c r="E27">
+        <v>18.325</v>
+      </c>
+      <c r="F27">
+        <v>46.625</v>
+      </c>
+      <c r="G27">
+        <v>10.8</v>
+      </c>
+      <c r="H27">
+        <v>158.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5.71</v>
+      </c>
+      <c r="K27">
+        <v>4.01</v>
+      </c>
+      <c r="L27">
+        <v>1.7</v>
+      </c>
+      <c r="M27">
+        <v>8.5650125</v>
+      </c>
+      <c r="N27">
+        <v>-6.8650125</v>
+      </c>
+      <c r="O27">
+        <v>-1.9222035</v>
+      </c>
+      <c r="P27">
+        <v>-4.942809</v>
+      </c>
+      <c r="Q27">
+        <v>-0.9328089999999998</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06340222234134953</v>
+      </c>
+      <c r="T27">
+        <v>1.146233524181134</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.05557493348667035</v>
+      </c>
+      <c r="W27">
+        <v>0.1734908847184987</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1984819053095369</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09266838793563681</v>
+      </c>
+      <c r="C28">
+        <v>48.31262229347373</v>
+      </c>
+      <c r="D28">
+        <v>86.00262229347373</v>
+      </c>
+      <c r="E28">
+        <v>20.19</v>
+      </c>
+      <c r="F28">
+        <v>48.49</v>
+      </c>
+      <c r="G28">
+        <v>10.8</v>
+      </c>
+      <c r="H28">
+        <v>158.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5.71</v>
+      </c>
+      <c r="K28">
+        <v>4.01</v>
+      </c>
+      <c r="L28">
+        <v>1.7</v>
+      </c>
+      <c r="M28">
+        <v>8.907613000000001</v>
+      </c>
+      <c r="N28">
+        <v>-7.207613000000001</v>
+      </c>
+      <c r="O28">
+        <v>-2.01813164</v>
+      </c>
+      <c r="P28">
+        <v>-5.18948136</v>
+      </c>
+      <c r="Q28">
+        <v>-1.17948136</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06413333345407046</v>
+      </c>
+      <c r="T28">
+        <v>1.161723166399798</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.05343743604487532</v>
+      </c>
+      <c r="W28">
+        <v>0.1738835429985564</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1908479858745548</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.0944123879356368</v>
+      </c>
+      <c r="C29">
+        <v>44.68538089809375</v>
+      </c>
+      <c r="D29">
+        <v>84.24038089809376</v>
+      </c>
+      <c r="E29">
+        <v>22.055</v>
+      </c>
+      <c r="F29">
+        <v>50.355</v>
+      </c>
+      <c r="G29">
+        <v>10.8</v>
+      </c>
+      <c r="H29">
+        <v>158.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>5.71</v>
+      </c>
+      <c r="K29">
+        <v>4.01</v>
+      </c>
+      <c r="L29">
+        <v>1.7</v>
+      </c>
+      <c r="M29">
+        <v>9.250213500000001</v>
+      </c>
+      <c r="N29">
+        <v>-7.550213500000001</v>
+      </c>
+      <c r="O29">
+        <v>-2.11405978</v>
+      </c>
+      <c r="P29">
+        <v>-5.43615372</v>
+      </c>
+      <c r="Q29">
+        <v>-1.42615372</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06488447500823581</v>
+      </c>
+      <c r="T29">
+        <v>1.177637182377878</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.05145827174691699</v>
+      </c>
+      <c r="W29">
+        <v>0.1742471154800914</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1837795419532749</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09615638793563683</v>
+      </c>
+      <c r="C30">
+        <v>41.12890802225707</v>
+      </c>
+      <c r="D30">
+        <v>82.54890802225708</v>
+      </c>
+      <c r="E30">
+        <v>23.92000000000001</v>
+      </c>
+      <c r="F30">
+        <v>52.22000000000001</v>
+      </c>
+      <c r="G30">
+        <v>10.8</v>
+      </c>
+      <c r="H30">
+        <v>158.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5.71</v>
+      </c>
+      <c r="K30">
+        <v>4.01</v>
+      </c>
+      <c r="L30">
+        <v>1.7</v>
+      </c>
+      <c r="M30">
+        <v>9.592814000000001</v>
+      </c>
+      <c r="N30">
+        <v>-7.892814</v>
+      </c>
+      <c r="O30">
+        <v>-2.209987920000001</v>
+      </c>
+      <c r="P30">
+        <v>-5.68282608</v>
+      </c>
+      <c r="Q30">
+        <v>-1.67282608</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06565648160557243</v>
+      </c>
+      <c r="T30">
+        <v>1.193993254355348</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.04962047632738423</v>
+      </c>
+      <c r="W30">
+        <v>0.1745847184986595</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1772159868835151</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0979003879356368</v>
+      </c>
+      <c r="C31">
+        <v>37.63902466739643</v>
+      </c>
+      <c r="D31">
+        <v>80.92402466739642</v>
+      </c>
+      <c r="E31">
+        <v>25.78499999999999</v>
+      </c>
+      <c r="F31">
+        <v>54.08499999999999</v>
+      </c>
+      <c r="G31">
+        <v>10.8</v>
+      </c>
+      <c r="H31">
+        <v>158.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5.71</v>
+      </c>
+      <c r="K31">
+        <v>4.01</v>
+      </c>
+      <c r="L31">
+        <v>1.7</v>
+      </c>
+      <c r="M31">
+        <v>9.935414499999998</v>
+      </c>
+      <c r="N31">
+        <v>-8.235414499999997</v>
+      </c>
+      <c r="O31">
+        <v>-2.305916059999999</v>
+      </c>
+      <c r="P31">
+        <v>-5.929498439999998</v>
+      </c>
+      <c r="Q31">
+        <v>-1.919498439999998</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06645023486762273</v>
+      </c>
+      <c r="T31">
+        <v>1.210810060754719</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.04790942541954341</v>
+      </c>
+      <c r="W31">
+        <v>0.1748990385504299</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1711050907840836</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09964438793563679</v>
+      </c>
+      <c r="C32">
+        <v>34.21187451900554</v>
+      </c>
+      <c r="D32">
+        <v>79.36187451900554</v>
+      </c>
+      <c r="E32">
+        <v>27.65</v>
+      </c>
+      <c r="F32">
+        <v>55.95</v>
+      </c>
+      <c r="G32">
+        <v>10.8</v>
+      </c>
+      <c r="H32">
+        <v>158.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5.71</v>
+      </c>
+      <c r="K32">
+        <v>4.01</v>
+      </c>
+      <c r="L32">
+        <v>1.7</v>
+      </c>
+      <c r="M32">
+        <v>10.278015</v>
+      </c>
+      <c r="N32">
+        <v>-8.578015000000001</v>
+      </c>
+      <c r="O32">
+        <v>-2.4018442</v>
+      </c>
+      <c r="P32">
+        <v>-6.1761708</v>
+      </c>
+      <c r="Q32">
+        <v>-2.166170800000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06726666679430306</v>
+      </c>
+      <c r="T32">
+        <v>1.228107347336929</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.04631244457222529</v>
+      </c>
+      <c r="W32">
+        <v>0.1751924039320822</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1654015877579473</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1013883879356368</v>
+      </c>
+      <c r="C33">
+        <v>30.84389339115818</v>
+      </c>
+      <c r="D33">
+        <v>77.85889339115818</v>
+      </c>
+      <c r="E33">
+        <v>29.515</v>
+      </c>
+      <c r="F33">
+        <v>57.815</v>
+      </c>
+      <c r="G33">
+        <v>10.8</v>
+      </c>
+      <c r="H33">
+        <v>158.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>5.71</v>
+      </c>
+      <c r="K33">
+        <v>4.01</v>
+      </c>
+      <c r="L33">
+        <v>1.7</v>
+      </c>
+      <c r="M33">
+        <v>10.6206155</v>
+      </c>
+      <c r="N33">
+        <v>-8.9206155</v>
+      </c>
+      <c r="O33">
+        <v>-2.49777234</v>
+      </c>
+      <c r="P33">
+        <v>-6.422843159999999</v>
+      </c>
+      <c r="Q33">
+        <v>-2.41284316</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06810676341451036</v>
+      </c>
+      <c r="T33">
+        <v>1.245906004544711</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.0448184947473148</v>
+      </c>
+      <c r="W33">
+        <v>0.1754668425149183</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1600660526689813</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1031323879356368</v>
+      </c>
+      <c r="C34">
+        <v>27.5317820785129</v>
+      </c>
+      <c r="D34">
+        <v>76.4117820785129</v>
+      </c>
+      <c r="E34">
+        <v>31.38</v>
+      </c>
+      <c r="F34">
+        <v>59.68</v>
+      </c>
+      <c r="G34">
+        <v>10.8</v>
+      </c>
+      <c r="H34">
+        <v>158.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>5.71</v>
+      </c>
+      <c r="K34">
+        <v>4.01</v>
+      </c>
+      <c r="L34">
+        <v>1.7</v>
+      </c>
+      <c r="M34">
+        <v>10.963216</v>
+      </c>
+      <c r="N34">
+        <v>-9.263216</v>
+      </c>
+      <c r="O34">
+        <v>-2.59370048</v>
+      </c>
+      <c r="P34">
+        <v>-6.669515519999999</v>
+      </c>
+      <c r="Q34">
+        <v>-2.659515519999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06897156875884139</v>
+      </c>
+      <c r="T34">
+        <v>1.264228151670368</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.0434179167864612</v>
+      </c>
+      <c r="W34">
+        <v>0.1757241286863271</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1550639885230758</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1048763879356368</v>
+      </c>
+      <c r="C35">
+        <v>24.27248218056461</v>
+      </c>
+      <c r="D35">
+        <v>75.01748218056461</v>
+      </c>
+      <c r="E35">
+        <v>33.245</v>
+      </c>
+      <c r="F35">
+        <v>61.545</v>
+      </c>
+      <c r="G35">
+        <v>10.8</v>
+      </c>
+      <c r="H35">
+        <v>158.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>5.71</v>
+      </c>
+      <c r="K35">
+        <v>4.01</v>
+      </c>
+      <c r="L35">
+        <v>1.7</v>
+      </c>
+      <c r="M35">
+        <v>11.3058165</v>
+      </c>
+      <c r="N35">
+        <v>-9.6058165</v>
+      </c>
+      <c r="O35">
+        <v>-2.68962862</v>
+      </c>
+      <c r="P35">
+        <v>-6.916187879999999</v>
+      </c>
+      <c r="Q35">
+        <v>-2.906187879999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06986218918807782</v>
+      </c>
+      <c r="T35">
+        <v>1.283097228560971</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.04210222233838662</v>
+      </c>
+      <c r="W35">
+        <v>0.1759658217564384</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1503650797799523</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1066203879356368</v>
+      </c>
+      <c r="C36">
+        <v>21.06315452530053</v>
+      </c>
+      <c r="D36">
+        <v>73.67315452530053</v>
+      </c>
+      <c r="E36">
+        <v>35.11</v>
+      </c>
+      <c r="F36">
+        <v>63.41</v>
+      </c>
+      <c r="G36">
+        <v>10.8</v>
+      </c>
+      <c r="H36">
+        <v>158.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>5.71</v>
+      </c>
+      <c r="K36">
+        <v>4.01</v>
+      </c>
+      <c r="L36">
+        <v>1.7</v>
+      </c>
+      <c r="M36">
+        <v>11.648417</v>
+      </c>
+      <c r="N36">
+        <v>-9.948416999999999</v>
+      </c>
+      <c r="O36">
+        <v>-2.78555676</v>
+      </c>
+      <c r="P36">
+        <v>-7.162860239999999</v>
+      </c>
+      <c r="Q36">
+        <v>-3.152860239999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07077979811516992</v>
+      </c>
+      <c r="T36">
+        <v>1.30253809566038</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.04086392168137526</v>
+      </c>
+      <c r="W36">
+        <v>0.1761932975871314</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1459425774334832</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1083643879356368</v>
+      </c>
+      <c r="C37">
+        <v>17.90115987192817</v>
+      </c>
+      <c r="D37">
+        <v>72.37615987192818</v>
+      </c>
+      <c r="E37">
+        <v>36.97500000000001</v>
+      </c>
+      <c r="F37">
+        <v>65.27500000000001</v>
+      </c>
+      <c r="G37">
+        <v>10.8</v>
+      </c>
+      <c r="H37">
+        <v>158.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5.71</v>
+      </c>
+      <c r="K37">
+        <v>4.01</v>
+      </c>
+      <c r="L37">
+        <v>1.7</v>
+      </c>
+      <c r="M37">
+        <v>11.9910175</v>
+      </c>
+      <c r="N37">
+        <v>-10.2910175</v>
+      </c>
+      <c r="O37">
+        <v>-2.881484900000001</v>
+      </c>
+      <c r="P37">
+        <v>-7.409532600000001</v>
+      </c>
+      <c r="Q37">
+        <v>-3.399532600000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07172564116309561</v>
+      </c>
+      <c r="T37">
+        <v>1.322577143285924</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.03969638106190738</v>
+      </c>
+      <c r="W37">
+        <v>0.1764077747989276</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.141772789506812</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1101083879356368</v>
+      </c>
+      <c r="C38">
+        <v>14.78404161667713</v>
+      </c>
+      <c r="D38">
+        <v>71.12404161667713</v>
+      </c>
+      <c r="E38">
+        <v>38.84</v>
+      </c>
+      <c r="F38">
+        <v>67.14</v>
+      </c>
+      <c r="G38">
+        <v>10.8</v>
+      </c>
+      <c r="H38">
+        <v>158.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5.71</v>
+      </c>
+      <c r="K38">
+        <v>4.01</v>
+      </c>
+      <c r="L38">
+        <v>1.7</v>
+      </c>
+      <c r="M38">
+        <v>12.333618</v>
+      </c>
+      <c r="N38">
+        <v>-10.633618</v>
+      </c>
+      <c r="O38">
+        <v>-2.97741304</v>
+      </c>
+      <c r="P38">
+        <v>-7.656204959999998</v>
+      </c>
+      <c r="Q38">
+        <v>-3.646204959999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07270104180626898</v>
+      </c>
+      <c r="T38">
+        <v>1.343242411149767</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.03859370381018774</v>
+      </c>
+      <c r="W38">
+        <v>0.1766103366100685</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1378346564649563</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1118523879356368</v>
+      </c>
+      <c r="C39">
+        <v>11.7095102632255</v>
+      </c>
+      <c r="D39">
+        <v>69.91451026322549</v>
+      </c>
+      <c r="E39">
+        <v>40.705</v>
+      </c>
+      <c r="F39">
+        <v>69.005</v>
+      </c>
+      <c r="G39">
+        <v>10.8</v>
+      </c>
+      <c r="H39">
+        <v>158.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5.71</v>
+      </c>
+      <c r="K39">
+        <v>4.01</v>
+      </c>
+      <c r="L39">
+        <v>1.7</v>
+      </c>
+      <c r="M39">
+        <v>12.6762185</v>
+      </c>
+      <c r="N39">
+        <v>-10.9762185</v>
+      </c>
+      <c r="O39">
+        <v>-3.07334118</v>
+      </c>
+      <c r="P39">
+        <v>-7.902877319999998</v>
+      </c>
+      <c r="Q39">
+        <v>-3.892877319999998</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07370740754922564</v>
+      </c>
+      <c r="T39">
+        <v>1.364563719263255</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.03755063073423672</v>
+      </c>
+      <c r="W39">
+        <v>0.1768019491341207</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1341093954794169</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1135963879356368</v>
+      </c>
+      <c r="C40">
+        <v>8.675429451200543</v>
+      </c>
+      <c r="D40">
+        <v>68.74542945120055</v>
+      </c>
+      <c r="E40">
+        <v>42.57000000000001</v>
+      </c>
+      <c r="F40">
+        <v>70.87</v>
+      </c>
+      <c r="G40">
+        <v>10.8</v>
+      </c>
+      <c r="H40">
+        <v>158.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>5.71</v>
+      </c>
+      <c r="K40">
+        <v>4.01</v>
+      </c>
+      <c r="L40">
+        <v>1.7</v>
+      </c>
+      <c r="M40">
+        <v>13.018819</v>
+      </c>
+      <c r="N40">
+        <v>-11.318819</v>
+      </c>
+      <c r="O40">
+        <v>-3.169269320000001</v>
+      </c>
+      <c r="P40">
+        <v>-8.14954968</v>
+      </c>
+      <c r="Q40">
+        <v>-4.13954968</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.0747462367032454</v>
+      </c>
+      <c r="T40">
+        <v>1.386572811509436</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.03656245624123049</v>
+      </c>
+      <c r="W40">
+        <v>0.176983476788486</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1305802008615374</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1153403879356368</v>
+      </c>
+      <c r="C41">
+        <v>5.67980336337763</v>
+      </c>
+      <c r="D41">
+        <v>67.61480336337763</v>
+      </c>
+      <c r="E41">
+        <v>44.435</v>
+      </c>
+      <c r="F41">
+        <v>72.735</v>
+      </c>
+      <c r="G41">
+        <v>10.8</v>
+      </c>
+      <c r="H41">
+        <v>158.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>5.71</v>
+      </c>
+      <c r="K41">
+        <v>4.01</v>
+      </c>
+      <c r="L41">
+        <v>1.7</v>
+      </c>
+      <c r="M41">
+        <v>13.3614195</v>
+      </c>
+      <c r="N41">
+        <v>-11.6614195</v>
+      </c>
+      <c r="O41">
+        <v>-3.26519746</v>
+      </c>
+      <c r="P41">
+        <v>-8.396222040000001</v>
+      </c>
+      <c r="Q41">
+        <v>-4.386222040000002</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0758191258295281</v>
+      </c>
+      <c r="T41">
+        <v>1.40930351333746</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.03562495736325022</v>
+      </c>
+      <c r="W41">
+        <v>0.1771556953323709</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1272319905830365</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1170843879356368</v>
+      </c>
+      <c r="C42">
+        <v>2.720765355422813</v>
+      </c>
+      <c r="D42">
+        <v>66.52076535542282</v>
+      </c>
+      <c r="E42">
+        <v>46.30000000000001</v>
+      </c>
+      <c r="F42">
+        <v>74.60000000000001</v>
+      </c>
+      <c r="G42">
+        <v>10.8</v>
+      </c>
+      <c r="H42">
+        <v>158.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>5.71</v>
+      </c>
+      <c r="K42">
+        <v>4.01</v>
+      </c>
+      <c r="L42">
+        <v>1.7</v>
+      </c>
+      <c r="M42">
+        <v>13.70402</v>
+      </c>
+      <c r="N42">
+        <v>-12.00402</v>
+      </c>
+      <c r="O42">
+        <v>-3.3611256</v>
+      </c>
+      <c r="P42">
+        <v>-8.642894399999999</v>
+      </c>
+      <c r="Q42">
+        <v>-4.6328944</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07692777792668692</v>
+      </c>
+      <c r="T42">
+        <v>1.432791905226418</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.03473433342916896</v>
+      </c>
+      <c r="W42">
+        <v>0.1773193029490616</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1240511908184606</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1188283879356368</v>
+      </c>
+      <c r="C43">
+        <v>-0.2034323280857819</v>
+      </c>
+      <c r="D43">
+        <v>65.46156767191422</v>
+      </c>
+      <c r="E43">
+        <v>48.16500000000001</v>
+      </c>
+      <c r="F43">
+        <v>76.465</v>
+      </c>
+      <c r="G43">
+        <v>10.8</v>
+      </c>
+      <c r="H43">
+        <v>158.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>5.71</v>
+      </c>
+      <c r="K43">
+        <v>4.01</v>
+      </c>
+      <c r="L43">
+        <v>1.7</v>
+      </c>
+      <c r="M43">
+        <v>14.0466205</v>
+      </c>
+      <c r="N43">
+        <v>-12.3466205</v>
+      </c>
+      <c r="O43">
+        <v>-3.457053740000001</v>
+      </c>
+      <c r="P43">
+        <v>-8.889566759999999</v>
+      </c>
+      <c r="Q43">
+        <v>-4.879566759999999</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07807401145086804</v>
+      </c>
+      <c r="T43">
+        <v>1.457076513789577</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.03388715456504289</v>
+      </c>
+      <c r="W43">
+        <v>0.1774749297064016</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1210255520180104</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1205723879356368</v>
+      </c>
+      <c r="C44">
+        <v>-3.094427870536549</v>
+      </c>
+      <c r="D44">
+        <v>64.43557212946345</v>
+      </c>
+      <c r="E44">
+        <v>50.03</v>
+      </c>
+      <c r="F44">
+        <v>78.33</v>
+      </c>
+      <c r="G44">
+        <v>10.8</v>
+      </c>
+      <c r="H44">
+        <v>158.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>5.71</v>
+      </c>
+      <c r="K44">
+        <v>4.01</v>
+      </c>
+      <c r="L44">
+        <v>1.7</v>
+      </c>
+      <c r="M44">
+        <v>14.389221</v>
+      </c>
+      <c r="N44">
+        <v>-12.689221</v>
+      </c>
+      <c r="O44">
+        <v>-3.55298188</v>
+      </c>
+      <c r="P44">
+        <v>-9.136239119999999</v>
+      </c>
+      <c r="Q44">
+        <v>-5.126239119999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07925977026898645</v>
+      </c>
+      <c r="T44">
+        <v>1.482198522648018</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.03308031755158949</v>
+      </c>
+      <c r="W44">
+        <v>0.177623145665773</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1181439912556767</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1223163879356368</v>
+      </c>
+      <c r="C45">
+        <v>-5.953758337528498</v>
+      </c>
+      <c r="D45">
+        <v>63.4412416624715</v>
+      </c>
+      <c r="E45">
+        <v>51.895</v>
+      </c>
+      <c r="F45">
+        <v>80.19499999999999</v>
+      </c>
+      <c r="G45">
+        <v>10.8</v>
+      </c>
+      <c r="H45">
+        <v>158.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>5.71</v>
+      </c>
+      <c r="K45">
+        <v>4.01</v>
+      </c>
+      <c r="L45">
+        <v>1.7</v>
+      </c>
+      <c r="M45">
+        <v>14.7318215</v>
+      </c>
+      <c r="N45">
+        <v>-13.0318215</v>
+      </c>
+      <c r="O45">
+        <v>-3.64891002</v>
+      </c>
+      <c r="P45">
+        <v>-9.382911479999999</v>
+      </c>
+      <c r="Q45">
+        <v>-5.372911479999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08048713465967043</v>
+      </c>
+      <c r="T45">
+        <v>1.508202005501492</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.03231100784108741</v>
+      </c>
+      <c r="W45">
+        <v>0.1777644678595922</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1153964565753122</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1240603879356368</v>
+      </c>
+      <c r="C46">
+        <v>-8.782867360246357</v>
+      </c>
+      <c r="D46">
+        <v>62.47713263975364</v>
+      </c>
+      <c r="E46">
+        <v>53.76000000000001</v>
+      </c>
+      <c r="F46">
+        <v>82.06</v>
+      </c>
+      <c r="G46">
+        <v>10.8</v>
+      </c>
+      <c r="H46">
+        <v>158.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>5.71</v>
+      </c>
+      <c r="K46">
+        <v>4.01</v>
+      </c>
+      <c r="L46">
+        <v>1.7</v>
+      </c>
+      <c r="M46">
+        <v>15.074422</v>
+      </c>
+      <c r="N46">
+        <v>-13.374422</v>
+      </c>
+      <c r="O46">
+        <v>-3.74483816</v>
+      </c>
+      <c r="P46">
+        <v>-9.629583839999999</v>
+      </c>
+      <c r="Q46">
+        <v>-5.619583839999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08175833349287884</v>
+      </c>
+      <c r="T46">
+        <v>1.535134184171162</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.03157666675378997</v>
+      </c>
+      <c r="W46">
+        <v>0.1778993663173288</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1127738098349642</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1258043879356368</v>
+      </c>
+      <c r="C47">
+        <v>-11.5831121287432</v>
+      </c>
+      <c r="D47">
+        <v>61.5418878712568</v>
+      </c>
+      <c r="E47">
+        <v>55.625</v>
+      </c>
+      <c r="F47">
+        <v>83.925</v>
+      </c>
+      <c r="G47">
+        <v>10.8</v>
+      </c>
+      <c r="H47">
+        <v>158.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>5.71</v>
+      </c>
+      <c r="K47">
+        <v>4.01</v>
+      </c>
+      <c r="L47">
+        <v>1.7</v>
+      </c>
+      <c r="M47">
+        <v>15.4170225</v>
+      </c>
+      <c r="N47">
+        <v>-13.7170225</v>
+      </c>
+      <c r="O47">
+        <v>-3.8407663</v>
+      </c>
+      <c r="P47">
+        <v>-9.876256199999998</v>
+      </c>
+      <c r="Q47">
+        <v>-5.866256199999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0830757577382039</v>
+      </c>
+      <c r="T47">
+        <v>1.563045714792455</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.03087496304815019</v>
+      </c>
+      <c r="W47">
+        <v>0.1780282692880548</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.110267725171965</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1275483879356368</v>
+      </c>
+      <c r="C48">
+        <v>-14.35576976637537</v>
+      </c>
+      <c r="D48">
+        <v>60.63423023362463</v>
+      </c>
+      <c r="E48">
+        <v>57.49000000000001</v>
+      </c>
+      <c r="F48">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="G48">
+        <v>10.8</v>
+      </c>
+      <c r="H48">
+        <v>158.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5.71</v>
+      </c>
+      <c r="K48">
+        <v>4.01</v>
+      </c>
+      <c r="L48">
+        <v>1.7</v>
+      </c>
+      <c r="M48">
+        <v>15.759623</v>
+      </c>
+      <c r="N48">
+        <v>-14.059623</v>
+      </c>
+      <c r="O48">
+        <v>-3.936694440000001</v>
+      </c>
+      <c r="P48">
+        <v>-10.12292856</v>
+      </c>
+      <c r="Q48">
+        <v>-6.112928560000002</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08444197547409657</v>
+      </c>
+      <c r="T48">
+        <v>1.591991005807131</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03020376819927736</v>
+      </c>
+      <c r="W48">
+        <v>0.1781515677817928</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1078706007117047</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1292923879356368</v>
+      </c>
+      <c r="C49">
+        <v>-17.10204314835158</v>
+      </c>
+      <c r="D49">
+        <v>59.75295685164841</v>
+      </c>
+      <c r="E49">
+        <v>59.355</v>
+      </c>
+      <c r="F49">
+        <v>87.655</v>
+      </c>
+      <c r="G49">
+        <v>10.8</v>
+      </c>
+      <c r="H49">
+        <v>158.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>5.71</v>
+      </c>
+      <c r="K49">
+        <v>4.01</v>
+      </c>
+      <c r="L49">
+        <v>1.7</v>
+      </c>
+      <c r="M49">
+        <v>16.1022235</v>
+      </c>
+      <c r="N49">
+        <v>-14.4022235</v>
+      </c>
+      <c r="O49">
+        <v>-4.032622580000001</v>
+      </c>
+      <c r="P49">
+        <v>-10.36960092</v>
+      </c>
+      <c r="Q49">
+        <v>-6.35960092</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08585974859624934</v>
+      </c>
+      <c r="T49">
+        <v>1.622028571954435</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.02956113483333529</v>
+      </c>
+      <c r="W49">
+        <v>0.1782696195311163</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.105575481547626</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1310363879356368</v>
+      </c>
+      <c r="C50">
+        <v>-19.82306622014151</v>
+      </c>
+      <c r="D50">
+        <v>58.89693377985848</v>
+      </c>
+      <c r="E50">
+        <v>61.22</v>
+      </c>
+      <c r="F50">
+        <v>89.52</v>
+      </c>
+      <c r="G50">
+        <v>10.8</v>
+      </c>
+      <c r="H50">
+        <v>158.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>5.71</v>
+      </c>
+      <c r="K50">
+        <v>4.01</v>
+      </c>
+      <c r="L50">
+        <v>1.7</v>
+      </c>
+      <c r="M50">
+        <v>16.444824</v>
+      </c>
+      <c r="N50">
+        <v>-14.744824</v>
+      </c>
+      <c r="O50">
+        <v>-4.128550720000001</v>
+      </c>
+      <c r="P50">
+        <v>-10.61627328</v>
+      </c>
+      <c r="Q50">
+        <v>-6.606273280000002</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08733205145386952</v>
+      </c>
+      <c r="T50">
+        <v>1.653221429107405</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0289452778576408</v>
+      </c>
+      <c r="W50">
+        <v>0.1783827524575514</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1033759923487171</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1327803879356368</v>
+      </c>
+      <c r="C51">
+        <v>-22.51990886519066</v>
+      </c>
+      <c r="D51">
+        <v>58.06509113480934</v>
+      </c>
+      <c r="E51">
+        <v>63.08500000000001</v>
+      </c>
+      <c r="F51">
+        <v>91.38500000000001</v>
+      </c>
+      <c r="G51">
+        <v>10.8</v>
+      </c>
+      <c r="H51">
+        <v>158.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5.71</v>
+      </c>
+      <c r="K51">
+        <v>4.01</v>
+      </c>
+      <c r="L51">
+        <v>1.7</v>
+      </c>
+      <c r="M51">
+        <v>16.7874245</v>
+      </c>
+      <c r="N51">
+        <v>-15.0874245</v>
+      </c>
+      <c r="O51">
+        <v>-4.224478860000001</v>
+      </c>
+      <c r="P51">
+        <v>-10.86294564</v>
+      </c>
+      <c r="Q51">
+        <v>-6.85294564</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.0888620916784552</v>
+      </c>
+      <c r="T51">
+        <v>1.685637535560491</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.02835455790136242</v>
+      </c>
+      <c r="W51">
+        <v>0.1784912677135197</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1012662782191515</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1345243879356368</v>
+      </c>
+      <c r="C52">
+        <v>-25.19358136587923</v>
+      </c>
+      <c r="D52">
+        <v>57.25641863412078</v>
+      </c>
+      <c r="E52">
+        <v>64.95</v>
+      </c>
+      <c r="F52">
+        <v>93.25</v>
+      </c>
+      <c r="G52">
+        <v>10.8</v>
+      </c>
+      <c r="H52">
+        <v>158.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>5.71</v>
+      </c>
+      <c r="K52">
+        <v>4.01</v>
+      </c>
+      <c r="L52">
+        <v>1.7</v>
+      </c>
+      <c r="M52">
+        <v>17.130025</v>
+      </c>
+      <c r="N52">
+        <v>-15.430025</v>
+      </c>
+      <c r="O52">
+        <v>-4.320407</v>
+      </c>
+      <c r="P52">
+        <v>-11.109618</v>
+      </c>
+      <c r="Q52">
+        <v>-7.099618000000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09045333351202429</v>
+      </c>
+      <c r="T52">
+        <v>1.719350286271701</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.02778746674333517</v>
+      </c>
+      <c r="W52">
+        <v>0.1785954423592493</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.0992409526547684</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1362683879356368</v>
+      </c>
+      <c r="C53">
+        <v>-27.84503849683473</v>
+      </c>
+      <c r="D53">
+        <v>56.46996150316527</v>
+      </c>
+      <c r="E53">
+        <v>66.815</v>
+      </c>
+      <c r="F53">
+        <v>95.11499999999999</v>
+      </c>
+      <c r="G53">
+        <v>10.8</v>
+      </c>
+      <c r="H53">
+        <v>158.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5.71</v>
+      </c>
+      <c r="K53">
+        <v>4.01</v>
+      </c>
+      <c r="L53">
+        <v>1.7</v>
+      </c>
+      <c r="M53">
+        <v>17.4726255</v>
+      </c>
+      <c r="N53">
+        <v>-15.7726255</v>
+      </c>
+      <c r="O53">
+        <v>-4.41633514</v>
+      </c>
+      <c r="P53">
+        <v>-11.35629036</v>
+      </c>
+      <c r="Q53">
+        <v>-7.346290359999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09210952399186154</v>
+      </c>
+      <c r="T53">
+        <v>1.754439067624185</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.02724261445425017</v>
+      </c>
+      <c r="W53">
+        <v>0.1786955317247542</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.09729505162232199</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1380123879356368</v>
+      </c>
+      <c r="C54">
+        <v>-30.4751832854682</v>
+      </c>
+      <c r="D54">
+        <v>55.70481671453179</v>
+      </c>
+      <c r="E54">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="F54">
+        <v>96.98</v>
+      </c>
+      <c r="G54">
+        <v>10.8</v>
+      </c>
+      <c r="H54">
+        <v>158.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5.71</v>
+      </c>
+      <c r="K54">
+        <v>4.01</v>
+      </c>
+      <c r="L54">
+        <v>1.7</v>
+      </c>
+      <c r="M54">
+        <v>17.815226</v>
+      </c>
+      <c r="N54">
+        <v>-16.115226</v>
+      </c>
+      <c r="O54">
+        <v>-4.512263280000002</v>
+      </c>
+      <c r="P54">
+        <v>-11.60296272</v>
+      </c>
+      <c r="Q54">
+        <v>-7.592962720000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09383472240835865</v>
+      </c>
+      <c r="T54">
+        <v>1.790989881533022</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.02671871802243766</v>
+      </c>
+      <c r="W54">
+        <v>0.1787917714992782</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.09542399293727732</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1397563879356368</v>
+      </c>
+      <c r="C55">
+        <v>-33.08487047087512</v>
+      </c>
+      <c r="D55">
+        <v>54.96012952912488</v>
+      </c>
+      <c r="E55">
+        <v>70.545</v>
+      </c>
+      <c r="F55">
+        <v>98.845</v>
+      </c>
+      <c r="G55">
+        <v>10.8</v>
+      </c>
+      <c r="H55">
+        <v>158.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>5.71</v>
+      </c>
+      <c r="K55">
+        <v>4.01</v>
+      </c>
+      <c r="L55">
+        <v>1.7</v>
+      </c>
+      <c r="M55">
+        <v>18.1578265</v>
+      </c>
+      <c r="N55">
+        <v>-16.4578265</v>
+      </c>
+      <c r="O55">
+        <v>-4.608191420000001</v>
+      </c>
+      <c r="P55">
+        <v>-11.84963508</v>
+      </c>
+      <c r="Q55">
+        <v>-7.839635079999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09563333352343012</v>
+      </c>
+      <c r="T55">
+        <v>1.829096049225214</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.02621459126729734</v>
+      </c>
+      <c r="W55">
+        <v>0.1788843795841975</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.09362354024034758</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1415003879356368</v>
+      </c>
+      <c r="C56">
+        <v>-35.67490968895564</v>
+      </c>
+      <c r="D56">
+        <v>54.23509031104437</v>
+      </c>
+      <c r="E56">
+        <v>72.41000000000001</v>
+      </c>
+      <c r="F56">
+        <v>100.71</v>
+      </c>
+      <c r="G56">
+        <v>10.8</v>
+      </c>
+      <c r="H56">
+        <v>158.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.71</v>
+      </c>
+      <c r="K56">
+        <v>4.01</v>
+      </c>
+      <c r="L56">
+        <v>1.7</v>
+      </c>
+      <c r="M56">
+        <v>18.500427</v>
+      </c>
+      <c r="N56">
+        <v>-16.800427</v>
+      </c>
+      <c r="O56">
+        <v>-4.704119560000001</v>
+      </c>
+      <c r="P56">
+        <v>-12.09630744</v>
+      </c>
+      <c r="Q56">
+        <v>-8.086307440000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09751014512176556</v>
+      </c>
+      <c r="T56">
+        <v>1.868859006817067</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.02572913587345849</v>
+      </c>
+      <c r="W56">
+        <v>0.1789735577400457</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.09188977097663742</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1432443879356368</v>
+      </c>
+      <c r="C57">
+        <v>-38.24606840870665</v>
+      </c>
+      <c r="D57">
+        <v>53.52893159129336</v>
+      </c>
+      <c r="E57">
+        <v>74.27500000000001</v>
+      </c>
+      <c r="F57">
+        <v>102.575</v>
+      </c>
+      <c r="G57">
+        <v>10.8</v>
+      </c>
+      <c r="H57">
+        <v>158.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.71</v>
+      </c>
+      <c r="K57">
+        <v>4.01</v>
+      </c>
+      <c r="L57">
+        <v>1.7</v>
+      </c>
+      <c r="M57">
+        <v>18.8430275</v>
+      </c>
+      <c r="N57">
+        <v>-17.1430275</v>
+      </c>
+      <c r="O57">
+        <v>-4.800047700000001</v>
+      </c>
+      <c r="P57">
+        <v>-12.3429798</v>
+      </c>
+      <c r="Q57">
+        <v>-8.332979800000002</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09947037056891589</v>
+      </c>
+      <c r="T57">
+        <v>1.910389206968557</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.02526133340303198</v>
+      </c>
+      <c r="W57">
+        <v>0.179059493053863</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.0902190478679713</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1449883879356368</v>
+      </c>
+      <c r="C58">
+        <v>-40.79907464207348</v>
+      </c>
+      <c r="D58">
+        <v>52.84092535792653</v>
+      </c>
+      <c r="E58">
+        <v>76.14000000000001</v>
+      </c>
+      <c r="F58">
+        <v>104.44</v>
+      </c>
+      <c r="G58">
+        <v>10.8</v>
+      </c>
+      <c r="H58">
+        <v>158.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>5.71</v>
+      </c>
+      <c r="K58">
+        <v>4.01</v>
+      </c>
+      <c r="L58">
+        <v>1.7</v>
+      </c>
+      <c r="M58">
+        <v>19.185628</v>
+      </c>
+      <c r="N58">
+        <v>-17.485628</v>
+      </c>
+      <c r="O58">
+        <v>-4.895975840000001</v>
+      </c>
+      <c r="P58">
+        <v>-12.58965216</v>
+      </c>
+      <c r="Q58">
+        <v>-8.57965216</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1015196971727549</v>
+      </c>
+      <c r="T58">
+        <v>1.95380714349057</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02481023816369212</v>
+      </c>
+      <c r="W58">
+        <v>0.1791423592493298</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.08860799344175752</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1467323879356368</v>
+      </c>
+      <c r="C59">
+        <v>-43.3346194474754</v>
+      </c>
+      <c r="D59">
+        <v>52.17038055252461</v>
+      </c>
+      <c r="E59">
+        <v>78.00500000000001</v>
+      </c>
+      <c r="F59">
+        <v>106.305</v>
+      </c>
+      <c r="G59">
+        <v>10.8</v>
+      </c>
+      <c r="H59">
+        <v>158.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.71</v>
+      </c>
+      <c r="K59">
+        <v>4.01</v>
+      </c>
+      <c r="L59">
+        <v>1.7</v>
+      </c>
+      <c r="M59">
+        <v>19.5282285</v>
+      </c>
+      <c r="N59">
+        <v>-17.8282285</v>
+      </c>
+      <c r="O59">
+        <v>-4.991903980000001</v>
+      </c>
+      <c r="P59">
+        <v>-12.83632452</v>
+      </c>
+      <c r="Q59">
+        <v>-8.826324520000002</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1036643412930515</v>
+      </c>
+      <c r="T59">
+        <v>1.999244518920583</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.02437497082748699</v>
+      </c>
+      <c r="W59">
+        <v>0.1792223178589906</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.08705346724102492</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1484763879356368</v>
+      </c>
+      <c r="C60">
+        <v>-45.85335924510312</v>
+      </c>
+      <c r="D60">
+        <v>51.51664075489687</v>
+      </c>
+      <c r="E60">
+        <v>79.86999999999999</v>
+      </c>
+      <c r="F60">
+        <v>108.17</v>
+      </c>
+      <c r="G60">
+        <v>10.8</v>
+      </c>
+      <c r="H60">
+        <v>158.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.71</v>
+      </c>
+      <c r="K60">
+        <v>4.01</v>
+      </c>
+      <c r="L60">
+        <v>1.7</v>
+      </c>
+      <c r="M60">
+        <v>19.870829</v>
+      </c>
+      <c r="N60">
+        <v>-18.170829</v>
+      </c>
+      <c r="O60">
+        <v>-5.08783212</v>
+      </c>
+      <c r="P60">
+        <v>-13.08299688</v>
+      </c>
+      <c r="Q60">
+        <v>-9.072996879999998</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1059111113238384</v>
+      </c>
+      <c r="T60">
+        <v>2.046845578894882</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02395471270977171</v>
+      </c>
+      <c r="W60">
+        <v>0.179299519275215</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.08555254539204171</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1502203879356368</v>
+      </c>
+      <c r="C61">
+        <v>-48.35591796029468</v>
+      </c>
+      <c r="D61">
+        <v>50.87908203970532</v>
+      </c>
+      <c r="E61">
+        <v>81.735</v>
+      </c>
+      <c r="F61">
+        <v>110.035</v>
+      </c>
+      <c r="G61">
+        <v>10.8</v>
+      </c>
+      <c r="H61">
+        <v>158.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>5.71</v>
+      </c>
+      <c r="K61">
+        <v>4.01</v>
+      </c>
+      <c r="L61">
+        <v>1.7</v>
+      </c>
+      <c r="M61">
+        <v>20.2134295</v>
+      </c>
+      <c r="N61">
+        <v>-18.5134295</v>
+      </c>
+      <c r="O61">
+        <v>-5.183760260000001</v>
+      </c>
+      <c r="P61">
+        <v>-13.32966924</v>
+      </c>
+      <c r="Q61">
+        <v>-9.319669240000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1082674798927125</v>
+      </c>
+      <c r="T61">
+        <v>2.096768641794757</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.02354870062994506</v>
+      </c>
+      <c r="W61">
+        <v>0.1793741036942791</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.08410250224980376</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1519643879356368</v>
+      </c>
+      <c r="C62">
+        <v>-50.84288900970107</v>
+      </c>
+      <c r="D62">
+        <v>50.25711099029893</v>
+      </c>
+      <c r="E62">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F62">
+        <v>111.9</v>
+      </c>
+      <c r="G62">
+        <v>10.8</v>
+      </c>
+      <c r="H62">
+        <v>158.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>5.71</v>
+      </c>
+      <c r="K62">
+        <v>4.01</v>
+      </c>
+      <c r="L62">
+        <v>1.7</v>
+      </c>
+      <c r="M62">
+        <v>20.55603</v>
+      </c>
+      <c r="N62">
+        <v>-18.85603</v>
+      </c>
+      <c r="O62">
+        <v>-5.2796884</v>
+      </c>
+      <c r="P62">
+        <v>-13.5763416</v>
+      </c>
+      <c r="Q62">
+        <v>-9.566341599999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1107416668900304</v>
+      </c>
+      <c r="T62">
+        <v>2.149187857839626</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02315622228611264</v>
+      </c>
+      <c r="W62">
+        <v>0.1794462019660411</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.08270079387897367</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1537083879356368</v>
+      </c>
+      <c r="C63">
+        <v>-53.31483714353209</v>
+      </c>
+      <c r="D63">
+        <v>49.65016285646791</v>
+      </c>
+      <c r="E63">
+        <v>85.465</v>
+      </c>
+      <c r="F63">
+        <v>113.765</v>
+      </c>
+      <c r="G63">
+        <v>10.8</v>
+      </c>
+      <c r="H63">
+        <v>158.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.71</v>
+      </c>
+      <c r="K63">
+        <v>4.01</v>
+      </c>
+      <c r="L63">
+        <v>1.7</v>
+      </c>
+      <c r="M63">
+        <v>20.8986305</v>
+      </c>
+      <c r="N63">
+        <v>-19.1986305</v>
+      </c>
+      <c r="O63">
+        <v>-5.37561654</v>
+      </c>
+      <c r="P63">
+        <v>-13.82301396</v>
+      </c>
+      <c r="Q63">
+        <v>-9.813013960000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.113342735271826</v>
+      </c>
+      <c r="T63">
+        <v>2.204295238809873</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02277661208470096</v>
+      </c>
+      <c r="W63">
+        <v>0.1795159363600404</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.08134504315964619</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1554523879356368</v>
+      </c>
+      <c r="C64">
+        <v>-55.77230015590391</v>
+      </c>
+      <c r="D64">
+        <v>49.05769984409609</v>
+      </c>
+      <c r="E64">
+        <v>87.33</v>
+      </c>
+      <c r="F64">
+        <v>115.63</v>
+      </c>
+      <c r="G64">
+        <v>10.8</v>
+      </c>
+      <c r="H64">
+        <v>158.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>5.71</v>
+      </c>
+      <c r="K64">
+        <v>4.01</v>
+      </c>
+      <c r="L64">
+        <v>1.7</v>
+      </c>
+      <c r="M64">
+        <v>21.241231</v>
+      </c>
+      <c r="N64">
+        <v>-19.541231</v>
+      </c>
+      <c r="O64">
+        <v>-5.47154468</v>
+      </c>
+      <c r="P64">
+        <v>-14.06968632</v>
+      </c>
+      <c r="Q64">
+        <v>-10.05968632</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1160807019895057</v>
+      </c>
+      <c r="T64">
+        <v>2.262303008252239</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0224092473736574</v>
+      </c>
+      <c r="W64">
+        <v>0.1795834212574592</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.08003302633449061</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1571963879356368</v>
+      </c>
+      <c r="C65">
+        <v>-58.21579047417548</v>
+      </c>
+      <c r="D65">
+        <v>48.47920952582452</v>
+      </c>
+      <c r="E65">
+        <v>89.19500000000001</v>
+      </c>
+      <c r="F65">
+        <v>117.495</v>
+      </c>
+      <c r="G65">
+        <v>10.8</v>
+      </c>
+      <c r="H65">
+        <v>158.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>5.71</v>
+      </c>
+      <c r="K65">
+        <v>4.01</v>
+      </c>
+      <c r="L65">
+        <v>1.7</v>
+      </c>
+      <c r="M65">
+        <v>21.5838315</v>
+      </c>
+      <c r="N65">
+        <v>-19.8838315</v>
+      </c>
+      <c r="O65">
+        <v>-5.567472820000002</v>
+      </c>
+      <c r="P65">
+        <v>-14.31635868</v>
+      </c>
+      <c r="Q65">
+        <v>-10.30635868</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1189666669081409</v>
+      </c>
+      <c r="T65">
+        <v>2.323446332799596</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02205354503439299</v>
+      </c>
+      <c r="W65">
+        <v>0.179648763777182</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.0787626608371178</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1589403879356368</v>
+      </c>
+      <c r="C66">
+        <v>-60.64579663714669</v>
+      </c>
+      <c r="D66">
+        <v>47.91420336285331</v>
+      </c>
+      <c r="E66">
+        <v>91.06</v>
+      </c>
+      <c r="F66">
+        <v>119.36</v>
+      </c>
+      <c r="G66">
+        <v>10.8</v>
+      </c>
+      <c r="H66">
+        <v>158.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5.71</v>
+      </c>
+      <c r="K66">
+        <v>4.01</v>
+      </c>
+      <c r="L66">
+        <v>1.7</v>
+      </c>
+      <c r="M66">
+        <v>21.926432</v>
+      </c>
+      <c r="N66">
+        <v>-20.226432</v>
+      </c>
+      <c r="O66">
+        <v>-5.663400960000001</v>
+      </c>
+      <c r="P66">
+        <v>-14.56303104</v>
+      </c>
+      <c r="Q66">
+        <v>-10.55303104</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1220129632111449</v>
+      </c>
+      <c r="T66">
+        <v>2.387986508710696</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.0217089583932306</v>
+      </c>
+      <c r="W66">
+        <v>0.1797120643431635</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.07753199426153778</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1606843879356368</v>
+      </c>
+      <c r="C67">
+        <v>-63.06278467108018</v>
+      </c>
+      <c r="D67">
+        <v>47.36221532891983</v>
+      </c>
+      <c r="E67">
+        <v>92.92500000000001</v>
+      </c>
+      <c r="F67">
+        <v>121.225</v>
+      </c>
+      <c r="G67">
+        <v>10.8</v>
+      </c>
+      <c r="H67">
+        <v>158.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>5.71</v>
+      </c>
+      <c r="K67">
+        <v>4.01</v>
+      </c>
+      <c r="L67">
+        <v>1.7</v>
+      </c>
+      <c r="M67">
+        <v>22.2690325</v>
+      </c>
+      <c r="N67">
+        <v>-20.5690325</v>
+      </c>
+      <c r="O67">
+        <v>-5.759329100000001</v>
+      </c>
+      <c r="P67">
+        <v>-14.8097034</v>
+      </c>
+      <c r="Q67">
+        <v>-10.7997034</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1252333335886061</v>
+      </c>
+      <c r="T67">
+        <v>2.456214694673859</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02137497441795013</v>
+      </c>
+      <c r="W67">
+        <v>0.1797734171994226</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.07633919434982184</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1624283879356368</v>
+      </c>
+      <c r="C68">
+        <v>-65.46719937169307</v>
+      </c>
+      <c r="D68">
+        <v>46.82280062830694</v>
+      </c>
+      <c r="E68">
+        <v>94.79000000000001</v>
+      </c>
+      <c r="F68">
+        <v>123.09</v>
+      </c>
+      <c r="G68">
+        <v>10.8</v>
+      </c>
+      <c r="H68">
+        <v>158.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>5.71</v>
+      </c>
+      <c r="K68">
+        <v>4.01</v>
+      </c>
+      <c r="L68">
+        <v>1.7</v>
+      </c>
+      <c r="M68">
+        <v>22.611633</v>
+      </c>
+      <c r="N68">
+        <v>-20.911633</v>
+      </c>
+      <c r="O68">
+        <v>-5.855257240000001</v>
+      </c>
+      <c r="P68">
+        <v>-15.05637576</v>
+      </c>
+      <c r="Q68">
+        <v>-11.04637576</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1286431375176828</v>
+      </c>
+      <c r="T68">
+        <v>2.528456303340737</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02105111116919331</v>
+      </c>
+      <c r="W68">
+        <v>0.1798329108782192</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.07518253988997603</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1641723879356368</v>
+      </c>
+      <c r="C69">
+        <v>-67.85946549953054</v>
+      </c>
+      <c r="D69">
+        <v>46.29553450046947</v>
+      </c>
+      <c r="E69">
+        <v>96.65500000000002</v>
+      </c>
+      <c r="F69">
+        <v>124.955</v>
+      </c>
+      <c r="G69">
+        <v>10.8</v>
+      </c>
+      <c r="H69">
+        <v>158.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5.71</v>
+      </c>
+      <c r="K69">
+        <v>4.01</v>
+      </c>
+      <c r="L69">
+        <v>1.7</v>
+      </c>
+      <c r="M69">
+        <v>22.9542335</v>
+      </c>
+      <c r="N69">
+        <v>-21.2542335</v>
+      </c>
+      <c r="O69">
+        <v>-5.951185380000001</v>
+      </c>
+      <c r="P69">
+        <v>-15.30304812</v>
+      </c>
+      <c r="Q69">
+        <v>-11.29304812</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1322595962303398</v>
+      </c>
+      <c r="T69">
+        <v>2.60507619132076</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02073691548010087</v>
+      </c>
+      <c r="W69">
+        <v>0.1798906286263054</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.07406041242893169</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1659163879356368</v>
+      </c>
+      <c r="C70">
+        <v>-70.239988895473</v>
+      </c>
+      <c r="D70">
+        <v>45.78001110452701</v>
+      </c>
+      <c r="E70">
+        <v>98.52000000000001</v>
+      </c>
+      <c r="F70">
+        <v>126.82</v>
+      </c>
+      <c r="G70">
+        <v>10.8</v>
+      </c>
+      <c r="H70">
+        <v>158.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>5.71</v>
+      </c>
+      <c r="K70">
+        <v>4.01</v>
+      </c>
+      <c r="L70">
+        <v>1.7</v>
+      </c>
+      <c r="M70">
+        <v>23.296834</v>
+      </c>
+      <c r="N70">
+        <v>-21.596834</v>
+      </c>
+      <c r="O70">
+        <v>-6.047113520000001</v>
+      </c>
+      <c r="P70">
+        <v>-15.54972048</v>
+      </c>
+      <c r="Q70">
+        <v>-11.53972048</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.136102083612538</v>
+      </c>
+      <c r="T70">
+        <v>2.686484822299533</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02043196084068763</v>
+      </c>
+      <c r="W70">
+        <v>0.1799466487935657</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.07297128871674152</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1676603879356368</v>
+      </c>
+      <c r="C71">
+        <v>-72.60915752253361</v>
+      </c>
+      <c r="D71">
+        <v>45.27584247746639</v>
+      </c>
+      <c r="E71">
+        <v>100.385</v>
+      </c>
+      <c r="F71">
+        <v>128.685</v>
+      </c>
+      <c r="G71">
+        <v>10.8</v>
+      </c>
+      <c r="H71">
+        <v>158.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>5.71</v>
+      </c>
+      <c r="K71">
+        <v>4.01</v>
+      </c>
+      <c r="L71">
+        <v>1.7</v>
+      </c>
+      <c r="M71">
+        <v>23.6394345</v>
+      </c>
+      <c r="N71">
+        <v>-21.9394345</v>
+      </c>
+      <c r="O71">
+        <v>-6.143041660000001</v>
+      </c>
+      <c r="P71">
+        <v>-15.79639284</v>
+      </c>
+      <c r="Q71">
+        <v>-11.78639284</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1401924734064909</v>
+      </c>
+      <c r="T71">
+        <v>2.773145623018874</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02013584546618491</v>
+      </c>
+      <c r="W71">
+        <v>0.1800010451878618</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.07191373380780319</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1694043879356368</v>
+      </c>
+      <c r="C72">
+        <v>-74.96734243956689</v>
+      </c>
+      <c r="D72">
+        <v>44.78265756043312</v>
+      </c>
+      <c r="E72">
+        <v>102.25</v>
+      </c>
+      <c r="F72">
+        <v>130.55</v>
+      </c>
+      <c r="G72">
+        <v>10.8</v>
+      </c>
+      <c r="H72">
+        <v>158.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>5.71</v>
+      </c>
+      <c r="K72">
+        <v>4.01</v>
+      </c>
+      <c r="L72">
+        <v>1.7</v>
+      </c>
+      <c r="M72">
+        <v>23.982035</v>
+      </c>
+      <c r="N72">
+        <v>-22.282035</v>
+      </c>
+      <c r="O72">
+        <v>-6.238969800000001</v>
+      </c>
+      <c r="P72">
+        <v>-16.0430652</v>
+      </c>
+      <c r="Q72">
+        <v>-12.0330652</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1445555558533738</v>
+      </c>
+      <c r="T72">
+        <v>2.865583810452836</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.01984819053095369</v>
+      </c>
+      <c r="W72">
+        <v>0.1800538873994638</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.07088639475340597</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1711483879356368</v>
+      </c>
+      <c r="C73">
+        <v>-77.31489871202386</v>
+      </c>
+      <c r="D73">
+        <v>44.30010128797613</v>
+      </c>
+      <c r="E73">
+        <v>104.115</v>
+      </c>
+      <c r="F73">
+        <v>132.415</v>
+      </c>
+      <c r="G73">
+        <v>10.8</v>
+      </c>
+      <c r="H73">
+        <v>158.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5.71</v>
+      </c>
+      <c r="K73">
+        <v>4.01</v>
+      </c>
+      <c r="L73">
+        <v>1.7</v>
+      </c>
+      <c r="M73">
+        <v>24.3246355</v>
+      </c>
+      <c r="N73">
+        <v>-22.6246355</v>
+      </c>
+      <c r="O73">
+        <v>-6.33489794</v>
+      </c>
+      <c r="P73">
+        <v>-16.28973756</v>
+      </c>
+      <c r="Q73">
+        <v>-12.27973756</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1492195405379729</v>
+      </c>
+      <c r="T73">
+        <v>2.964397045296036</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01956863855164449</v>
+      </c>
+      <c r="W73">
+        <v>0.1801052410980629</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.06988799482730168</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1728923879356368</v>
+      </c>
+      <c r="C74">
+        <v>-79.65216626445196</v>
+      </c>
+      <c r="D74">
+        <v>43.82783373554803</v>
+      </c>
+      <c r="E74">
+        <v>105.98</v>
+      </c>
+      <c r="F74">
+        <v>134.28</v>
+      </c>
+      <c r="G74">
+        <v>10.8</v>
+      </c>
+      <c r="H74">
+        <v>158.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>5.71</v>
+      </c>
+      <c r="K74">
+        <v>4.01</v>
+      </c>
+      <c r="L74">
+        <v>1.7</v>
+      </c>
+      <c r="M74">
+        <v>24.667236</v>
+      </c>
+      <c r="N74">
+        <v>-22.967236</v>
+      </c>
+      <c r="O74">
+        <v>-6.43082608</v>
+      </c>
+      <c r="P74">
+        <v>-16.53640992</v>
+      </c>
+      <c r="Q74">
+        <v>-12.52640992</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1542166669857577</v>
+      </c>
+      <c r="T74">
+        <v>3.070268368342323</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.01929685190509387</v>
+      </c>
+      <c r="W74">
+        <v>0.1801551683050343</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.06891732823247809</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1746363879356368</v>
+      </c>
+      <c r="C75">
+        <v>-81.97947067904067</v>
+      </c>
+      <c r="D75">
+        <v>43.36552932095933</v>
+      </c>
+      <c r="E75">
+        <v>107.845</v>
+      </c>
+      <c r="F75">
+        <v>136.145</v>
+      </c>
+      <c r="G75">
+        <v>10.8</v>
+      </c>
+      <c r="H75">
+        <v>158.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>5.71</v>
+      </c>
+      <c r="K75">
+        <v>4.01</v>
+      </c>
+      <c r="L75">
+        <v>1.7</v>
+      </c>
+      <c r="M75">
+        <v>25.0098365</v>
+      </c>
+      <c r="N75">
+        <v>-23.3098365</v>
+      </c>
+      <c r="O75">
+        <v>-6.526754220000002</v>
+      </c>
+      <c r="P75">
+        <v>-16.78308228</v>
+      </c>
+      <c r="Q75">
+        <v>-12.77308228</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1595839509481931</v>
+      </c>
+      <c r="T75">
+        <v>3.183982011614261</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.01903251146803779</v>
+      </c>
+      <c r="W75">
+        <v>0.1802037276433215</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.06797325524299203</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1763803879356368</v>
+      </c>
+      <c r="C76">
+        <v>-84.29712394415573</v>
+      </c>
+      <c r="D76">
+        <v>42.91287605584427</v>
+      </c>
+      <c r="E76">
+        <v>109.71</v>
+      </c>
+      <c r="F76">
+        <v>138.01</v>
+      </c>
+      <c r="G76">
+        <v>10.8</v>
+      </c>
+      <c r="H76">
+        <v>158.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>5.71</v>
+      </c>
+      <c r="K76">
+        <v>4.01</v>
+      </c>
+      <c r="L76">
+        <v>1.7</v>
+      </c>
+      <c r="M76">
+        <v>25.352437</v>
+      </c>
+      <c r="N76">
+        <v>-23.652437</v>
+      </c>
+      <c r="O76">
+        <v>-6.622682360000001</v>
+      </c>
+      <c r="P76">
+        <v>-17.02975464</v>
+      </c>
+      <c r="Q76">
+        <v>-13.01975464</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.165364102907739</v>
+      </c>
+      <c r="T76">
+        <v>3.30644285821481</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01877531536711836</v>
+      </c>
+      <c r="W76">
+        <v>0.1802509745670604</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.0670546977397084</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1781243879356368</v>
+      </c>
+      <c r="C77">
+        <v>-86.60542515647772</v>
+      </c>
+      <c r="D77">
+        <v>42.46957484352228</v>
+      </c>
+      <c r="E77">
+        <v>111.575</v>
+      </c>
+      <c r="F77">
+        <v>139.875</v>
+      </c>
+      <c r="G77">
+        <v>10.8</v>
+      </c>
+      <c r="H77">
+        <v>158.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>5.71</v>
+      </c>
+      <c r="K77">
+        <v>4.01</v>
+      </c>
+      <c r="L77">
+        <v>1.7</v>
+      </c>
+      <c r="M77">
+        <v>25.6950375</v>
+      </c>
+      <c r="N77">
+        <v>-23.9950375</v>
+      </c>
+      <c r="O77">
+        <v>-6.718610500000001</v>
+      </c>
+      <c r="P77">
+        <v>-17.276427</v>
+      </c>
+      <c r="Q77">
+        <v>-13.266427</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1716066670240486</v>
+      </c>
+      <c r="T77">
+        <v>3.438700572543402</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01852497782889011</v>
+      </c>
+      <c r="W77">
+        <v>0.1802969615728329</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.06616063510317893</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1798683879356368</v>
+      </c>
+      <c r="C78">
+        <v>-88.90466118006644</v>
+      </c>
+      <c r="D78">
+        <v>42.03533881993356</v>
+      </c>
+      <c r="E78">
+        <v>113.44</v>
+      </c>
+      <c r="F78">
+        <v>141.74</v>
+      </c>
+      <c r="G78">
+        <v>10.8</v>
+      </c>
+      <c r="H78">
+        <v>158.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>5.71</v>
+      </c>
+      <c r="K78">
+        <v>4.01</v>
+      </c>
+      <c r="L78">
+        <v>1.7</v>
+      </c>
+      <c r="M78">
+        <v>26.037638</v>
+      </c>
+      <c r="N78">
+        <v>-24.337638</v>
+      </c>
+      <c r="O78">
+        <v>-6.814538640000001</v>
+      </c>
+      <c r="P78">
+        <v>-17.52309936</v>
+      </c>
+      <c r="Q78">
+        <v>-13.51309936</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1783694448167173</v>
+      </c>
+      <c r="T78">
+        <v>3.581979763066045</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01828122812061525</v>
+      </c>
+      <c r="W78">
+        <v>0.180341738394243</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.06529010043076866</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1816123879356368</v>
+      </c>
+      <c r="C79">
+        <v>-91.19510726540153</v>
+      </c>
+      <c r="D79">
+        <v>41.60989273459845</v>
+      </c>
+      <c r="E79">
+        <v>115.305</v>
+      </c>
+      <c r="F79">
+        <v>143.605</v>
+      </c>
+      <c r="G79">
+        <v>10.8</v>
+      </c>
+      <c r="H79">
+        <v>158.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>5.71</v>
+      </c>
+      <c r="K79">
+        <v>4.01</v>
+      </c>
+      <c r="L79">
+        <v>1.7</v>
+      </c>
+      <c r="M79">
+        <v>26.3802385</v>
+      </c>
+      <c r="N79">
+        <v>-24.6802385</v>
+      </c>
+      <c r="O79">
+        <v>-6.91046678</v>
+      </c>
+      <c r="P79">
+        <v>-17.76977172</v>
+      </c>
+      <c r="Q79">
+        <v>-13.75977172</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1857202902435311</v>
+      </c>
+      <c r="T79">
+        <v>3.737718013634133</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01804380957359427</v>
+      </c>
+      <c r="W79">
+        <v>0.1803853521813307</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.06444217704855093</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1833563879356368</v>
+      </c>
+      <c r="C80">
+        <v>-93.47702763120836</v>
+      </c>
+      <c r="D80">
+        <v>41.19297236879164</v>
+      </c>
+      <c r="E80">
+        <v>117.17</v>
+      </c>
+      <c r="F80">
+        <v>145.47</v>
+      </c>
+      <c r="G80">
+        <v>10.8</v>
+      </c>
+      <c r="H80">
+        <v>158.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>5.71</v>
+      </c>
+      <c r="K80">
+        <v>4.01</v>
+      </c>
+      <c r="L80">
+        <v>1.7</v>
+      </c>
+      <c r="M80">
+        <v>26.722839</v>
+      </c>
+      <c r="N80">
+        <v>-25.022839</v>
+      </c>
+      <c r="O80">
+        <v>-7.006394920000001</v>
+      </c>
+      <c r="P80">
+        <v>-18.01644408</v>
+      </c>
+      <c r="Q80">
+        <v>-14.00644408</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1937393943455098</v>
+      </c>
+      <c r="T80">
+        <v>3.90761428698114</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01781247868162511</v>
+      </c>
+      <c r="W80">
+        <v>0.1804278476661855</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.06361599529151818</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1851003879356368</v>
+      </c>
+      <c r="C81">
+        <v>-95.75067601165154</v>
+      </c>
+      <c r="D81">
+        <v>40.78432398834848</v>
+      </c>
+      <c r="E81">
+        <v>119.035</v>
+      </c>
+      <c r="F81">
+        <v>147.335</v>
+      </c>
+      <c r="G81">
+        <v>10.8</v>
+      </c>
+      <c r="H81">
+        <v>158.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>5.71</v>
+      </c>
+      <c r="K81">
+        <v>4.01</v>
+      </c>
+      <c r="L81">
+        <v>1.7</v>
+      </c>
+      <c r="M81">
+        <v>27.0654395</v>
+      </c>
+      <c r="N81">
+        <v>-25.3654395</v>
+      </c>
+      <c r="O81">
+        <v>-7.102323060000001</v>
+      </c>
+      <c r="P81">
+        <v>-18.26311644</v>
+      </c>
+      <c r="Q81">
+        <v>-14.25311644</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2025222226476769</v>
+      </c>
+      <c r="T81">
+        <v>4.093691157789766</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.01758700426793365</v>
+      </c>
+      <c r="W81">
+        <v>0.1804692673159806</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.06281072952833444</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1868443879356368</v>
+      </c>
+      <c r="C82">
+        <v>-98.01629617127865</v>
+      </c>
+      <c r="D82">
+        <v>40.38370382872137</v>
+      </c>
+      <c r="E82">
+        <v>120.9</v>
+      </c>
+      <c r="F82">
+        <v>149.2</v>
+      </c>
+      <c r="G82">
+        <v>10.8</v>
+      </c>
+      <c r="H82">
+        <v>158.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>5.71</v>
+      </c>
+      <c r="K82">
+        <v>4.01</v>
+      </c>
+      <c r="L82">
+        <v>1.7</v>
+      </c>
+      <c r="M82">
+        <v>27.40804</v>
+      </c>
+      <c r="N82">
+        <v>-25.70804</v>
+      </c>
+      <c r="O82">
+        <v>-7.198251200000001</v>
+      </c>
+      <c r="P82">
+        <v>-18.5097888</v>
+      </c>
+      <c r="Q82">
+        <v>-14.4997888</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2121833337800608</v>
+      </c>
+      <c r="T82">
+        <v>4.298375715679254</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01736716671458448</v>
+      </c>
+      <c r="W82">
+        <v>0.1805096514745308</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.06202559540923025</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1885883879356368</v>
+      </c>
+      <c r="C83">
+        <v>-100.2741223899101</v>
+      </c>
+      <c r="D83">
+        <v>39.99087761008986</v>
+      </c>
+      <c r="E83">
+        <v>122.765</v>
+      </c>
+      <c r="F83">
+        <v>151.065</v>
+      </c>
+      <c r="G83">
+        <v>10.8</v>
+      </c>
+      <c r="H83">
+        <v>158.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>5.71</v>
+      </c>
+      <c r="K83">
+        <v>4.01</v>
+      </c>
+      <c r="L83">
+        <v>1.7</v>
+      </c>
+      <c r="M83">
+        <v>27.7506405</v>
+      </c>
+      <c r="N83">
+        <v>-26.0506405</v>
+      </c>
+      <c r="O83">
+        <v>-7.29417934</v>
+      </c>
+      <c r="P83">
+        <v>-18.75646116</v>
+      </c>
+      <c r="Q83">
+        <v>-14.74646116</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2228614039790114</v>
+      </c>
+      <c r="T83">
+        <v>4.524606016504478</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01715275724897233</v>
+      </c>
+      <c r="W83">
+        <v>0.1805490384933638</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.06125984731775824</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1903323879356368</v>
+      </c>
+      <c r="C84">
+        <v>-102.5243799195009</v>
+      </c>
+      <c r="D84">
+        <v>39.60562008049912</v>
+      </c>
+      <c r="E84">
+        <v>124.63</v>
+      </c>
+      <c r="F84">
+        <v>152.93</v>
+      </c>
+      <c r="G84">
+        <v>10.8</v>
+      </c>
+      <c r="H84">
+        <v>158.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>5.71</v>
+      </c>
+      <c r="K84">
+        <v>4.01</v>
+      </c>
+      <c r="L84">
+        <v>1.7</v>
+      </c>
+      <c r="M84">
+        <v>28.093241</v>
+      </c>
+      <c r="N84">
+        <v>-26.393241</v>
+      </c>
+      <c r="O84">
+        <v>-7.390107480000002</v>
+      </c>
+      <c r="P84">
+        <v>-19.00313352</v>
+      </c>
+      <c r="Q84">
+        <v>-14.99313352</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2347259264222897</v>
+      </c>
+      <c r="T84">
+        <v>4.775973017421393</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.01694357728252145</v>
+      </c>
+      <c r="W84">
+        <v>0.1805874648532008</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.06051277600900518</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1920763879356368</v>
+      </c>
+      <c r="C85">
+        <v>-104.767285414847</v>
+      </c>
+      <c r="D85">
+        <v>39.227714585153</v>
+      </c>
+      <c r="E85">
+        <v>126.495</v>
+      </c>
+      <c r="F85">
+        <v>154.795</v>
+      </c>
+      <c r="G85">
+        <v>10.8</v>
+      </c>
+      <c r="H85">
+        <v>158.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>5.71</v>
+      </c>
+      <c r="K85">
+        <v>4.01</v>
+      </c>
+      <c r="L85">
+        <v>1.7</v>
+      </c>
+      <c r="M85">
+        <v>28.4358415</v>
+      </c>
+      <c r="N85">
+        <v>-26.7358415</v>
+      </c>
+      <c r="O85">
+        <v>-7.486035620000002</v>
+      </c>
+      <c r="P85">
+        <v>-19.24980588</v>
+      </c>
+      <c r="Q85">
+        <v>-15.23980588</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2479862750353656</v>
+      </c>
+      <c r="T85">
+        <v>5.056912606681475</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01673943779718986</v>
+      </c>
+      <c r="W85">
+        <v>0.1806249652766562</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.05978370641853514</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1938203879356368</v>
+      </c>
+      <c r="C86">
+        <v>-107.0030473398673</v>
+      </c>
+      <c r="D86">
+        <v>38.85695266013273</v>
+      </c>
+      <c r="E86">
+        <v>128.36</v>
+      </c>
+      <c r="F86">
+        <v>156.66</v>
+      </c>
+      <c r="G86">
+        <v>10.8</v>
+      </c>
+      <c r="H86">
+        <v>158.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>5.71</v>
+      </c>
+      <c r="K86">
+        <v>4.01</v>
+      </c>
+      <c r="L86">
+        <v>1.7</v>
+      </c>
+      <c r="M86">
+        <v>28.778442</v>
+      </c>
+      <c r="N86">
+        <v>-27.078442</v>
+      </c>
+      <c r="O86">
+        <v>-7.581963760000001</v>
+      </c>
+      <c r="P86">
+        <v>-19.49647824</v>
+      </c>
+      <c r="Q86">
+        <v>-15.48647824</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2629041672250759</v>
+      </c>
+      <c r="T86">
+        <v>5.372969644599065</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01654015877579475</v>
+      </c>
+      <c r="W86">
+        <v>0.1806615728328865</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.05907199562783838</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1955643879356368</v>
+      </c>
+      <c r="C87">
+        <v>-109.2318663510606</v>
+      </c>
+      <c r="D87">
+        <v>38.4931336489394</v>
+      </c>
+      <c r="E87">
+        <v>130.225</v>
+      </c>
+      <c r="F87">
+        <v>158.525</v>
+      </c>
+      <c r="G87">
+        <v>10.8</v>
+      </c>
+      <c r="H87">
+        <v>158.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>5.71</v>
+      </c>
+      <c r="K87">
+        <v>4.01</v>
+      </c>
+      <c r="L87">
+        <v>1.7</v>
+      </c>
+      <c r="M87">
+        <v>29.1210425</v>
+      </c>
+      <c r="N87">
+        <v>-27.4210425</v>
+      </c>
+      <c r="O87">
+        <v>-7.677891900000001</v>
+      </c>
+      <c r="P87">
+        <v>-19.7431506</v>
+      </c>
+      <c r="Q87">
+        <v>-15.7331506</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2798111117067476</v>
+      </c>
+      <c r="T87">
+        <v>5.73116762090567</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0163455686725501</v>
+      </c>
+      <c r="W87">
+        <v>0.1806973190348526</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.0583770309733932</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1973083879356368</v>
+      </c>
+      <c r="C88">
+        <v>-111.4539356596211</v>
+      </c>
+      <c r="D88">
+        <v>38.1360643403789</v>
+      </c>
+      <c r="E88">
+        <v>132.09</v>
+      </c>
+      <c r="F88">
+        <v>160.39</v>
+      </c>
+      <c r="G88">
+        <v>10.8</v>
+      </c>
+      <c r="H88">
+        <v>158.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>5.71</v>
+      </c>
+      <c r="K88">
+        <v>4.01</v>
+      </c>
+      <c r="L88">
+        <v>1.7</v>
+      </c>
+      <c r="M88">
+        <v>29.463643</v>
+      </c>
+      <c r="N88">
+        <v>-27.763643</v>
+      </c>
+      <c r="O88">
+        <v>-7.77382004</v>
+      </c>
+      <c r="P88">
+        <v>-19.98982296</v>
+      </c>
+      <c r="Q88">
+        <v>-15.97982296</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2991333339715153</v>
+      </c>
+      <c r="T88">
+        <v>6.140536736684647</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01615550392054371</v>
+      </c>
+      <c r="W88">
+        <v>0.1807322339297961</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.05769822828765603</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1990523879356368</v>
+      </c>
+      <c r="C89">
+        <v>-113.6694413735844</v>
+      </c>
+      <c r="D89">
+        <v>37.78555862641564</v>
+      </c>
+      <c r="E89">
+        <v>133.955</v>
+      </c>
+      <c r="F89">
+        <v>162.255</v>
+      </c>
+      <c r="G89">
+        <v>10.8</v>
+      </c>
+      <c r="H89">
+        <v>158.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>5.71</v>
+      </c>
+      <c r="K89">
+        <v>4.01</v>
+      </c>
+      <c r="L89">
+        <v>1.7</v>
+      </c>
+      <c r="M89">
+        <v>29.8062435</v>
+      </c>
+      <c r="N89">
+        <v>-28.1062435</v>
+      </c>
+      <c r="O89">
+        <v>-7.869748180000001</v>
+      </c>
+      <c r="P89">
+        <v>-20.23649532</v>
+      </c>
+      <c r="Q89">
+        <v>-16.22649532</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.321428205815478</v>
+      </c>
+      <c r="T89">
+        <v>6.61288571642962</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01596980847318113</v>
+      </c>
+      <c r="W89">
+        <v>0.1807663461834766</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.05703503026136114</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2007963879356368</v>
+      </c>
+      <c r="C90">
+        <v>-115.8785628212778</v>
+      </c>
+      <c r="D90">
+        <v>37.44143717872221</v>
+      </c>
+      <c r="E90">
+        <v>135.82</v>
+      </c>
+      <c r="F90">
+        <v>164.12</v>
+      </c>
+      <c r="G90">
+        <v>10.8</v>
+      </c>
+      <c r="H90">
+        <v>158.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>5.71</v>
+      </c>
+      <c r="K90">
+        <v>4.01</v>
+      </c>
+      <c r="L90">
+        <v>1.7</v>
+      </c>
+      <c r="M90">
+        <v>30.148844</v>
+      </c>
+      <c r="N90">
+        <v>-28.448844</v>
+      </c>
+      <c r="O90">
+        <v>-7.965676320000001</v>
+      </c>
+      <c r="P90">
+        <v>-20.48316768</v>
+      </c>
+      <c r="Q90">
+        <v>-16.47316768</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3474388896334346</v>
+      </c>
+      <c r="T90">
+        <v>7.163959526132089</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01578833337689499</v>
+      </c>
+      <c r="W90">
+        <v>0.1807996831586644</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.05638690491748211</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2025403879356368</v>
+      </c>
+      <c r="C91">
+        <v>-118.0814728572556</v>
+      </c>
+      <c r="D91">
+        <v>37.10352714274444</v>
+      </c>
+      <c r="E91">
+        <v>137.685</v>
+      </c>
+      <c r="F91">
+        <v>165.985</v>
+      </c>
+      <c r="G91">
+        <v>10.8</v>
+      </c>
+      <c r="H91">
+        <v>158.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>5.71</v>
+      </c>
+      <c r="K91">
+        <v>4.01</v>
+      </c>
+      <c r="L91">
+        <v>1.7</v>
+      </c>
+      <c r="M91">
+        <v>30.4914445</v>
+      </c>
+      <c r="N91">
+        <v>-28.7914445</v>
+      </c>
+      <c r="O91">
+        <v>-8.061604460000002</v>
+      </c>
+      <c r="P91">
+        <v>-20.72984004</v>
+      </c>
+      <c r="Q91">
+        <v>-16.71984004</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3781787886910196</v>
+      </c>
+      <c r="T91">
+        <v>7.81522857396228</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01561093637266021</v>
+      </c>
+      <c r="W91">
+        <v>0.1808322709883423</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.0557533441880721</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2042843879356368</v>
+      </c>
+      <c r="C92">
+        <v>-120.278338151816</v>
+      </c>
+      <c r="D92">
+        <v>36.77166184818398</v>
+      </c>
+      <c r="E92">
+        <v>139.55</v>
+      </c>
+      <c r="F92">
+        <v>167.85</v>
+      </c>
+      <c r="G92">
+        <v>10.8</v>
+      </c>
+      <c r="H92">
+        <v>158.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>5.71</v>
+      </c>
+      <c r="K92">
+        <v>4.01</v>
+      </c>
+      <c r="L92">
+        <v>1.7</v>
+      </c>
+      <c r="M92">
+        <v>30.834045</v>
+      </c>
+      <c r="N92">
+        <v>-29.134045</v>
+      </c>
+      <c r="O92">
+        <v>-8.157532600000001</v>
+      </c>
+      <c r="P92">
+        <v>-20.9765124</v>
+      </c>
+      <c r="Q92">
+        <v>-16.9665124</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4150666675601215</v>
+      </c>
+      <c r="T92">
+        <v>8.596751431358507</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0154374815240751</v>
+      </c>
+      <c r="W92">
+        <v>0.1808641346440274</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.05513386258598241</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2060283879356368</v>
+      </c>
+      <c r="C93">
+        <v>-122.469319465119</v>
+      </c>
+      <c r="D93">
+        <v>36.44568053488105</v>
+      </c>
+      <c r="E93">
+        <v>141.415</v>
+      </c>
+      <c r="F93">
+        <v>169.715</v>
+      </c>
+      <c r="G93">
+        <v>10.8</v>
+      </c>
+      <c r="H93">
+        <v>158.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>5.71</v>
+      </c>
+      <c r="K93">
+        <v>4.01</v>
+      </c>
+      <c r="L93">
+        <v>1.7</v>
+      </c>
+      <c r="M93">
+        <v>31.1766455</v>
+      </c>
+      <c r="N93">
+        <v>-29.4766455</v>
+      </c>
+      <c r="O93">
+        <v>-8.253460740000001</v>
+      </c>
+      <c r="P93">
+        <v>-21.22318476</v>
+      </c>
+      <c r="Q93">
+        <v>-17.21318476</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4601518528445794</v>
+      </c>
+      <c r="T93">
+        <v>9.551946034842786</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01526783886996438</v>
+      </c>
+      <c r="W93">
+        <v>0.1808952979995875</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.05452799596415847</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2077723879356368</v>
+      </c>
+      <c r="C94">
+        <v>-124.6545719068513</v>
+      </c>
+      <c r="D94">
+        <v>36.1254280931487</v>
+      </c>
+      <c r="E94">
+        <v>143.28</v>
+      </c>
+      <c r="F94">
+        <v>171.58</v>
+      </c>
+      <c r="G94">
+        <v>10.8</v>
+      </c>
+      <c r="H94">
+        <v>158.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>5.71</v>
+      </c>
+      <c r="K94">
+        <v>4.01</v>
+      </c>
+      <c r="L94">
+        <v>1.7</v>
+      </c>
+      <c r="M94">
+        <v>31.519246</v>
+      </c>
+      <c r="N94">
+        <v>-29.819246</v>
+      </c>
+      <c r="O94">
+        <v>-8.349388880000001</v>
+      </c>
+      <c r="P94">
+        <v>-21.46985712</v>
+      </c>
+      <c r="Q94">
+        <v>-17.45985712</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5165083344501521</v>
+      </c>
+      <c r="T94">
+        <v>10.74593928919814</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01510188409963868</v>
+      </c>
+      <c r="W94">
+        <v>0.1809257838908964</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.05393530035585237</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2095163879356368</v>
+      </c>
+      <c r="C95">
+        <v>-126.8342451823212</v>
+      </c>
+      <c r="D95">
+        <v>35.81075481767884</v>
+      </c>
+      <c r="E95">
+        <v>145.145</v>
+      </c>
+      <c r="F95">
+        <v>173.445</v>
+      </c>
+      <c r="G95">
+        <v>10.8</v>
+      </c>
+      <c r="H95">
+        <v>158.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>5.71</v>
+      </c>
+      <c r="K95">
+        <v>4.01</v>
+      </c>
+      <c r="L95">
+        <v>1.7</v>
+      </c>
+      <c r="M95">
+        <v>31.86184650000001</v>
+      </c>
+      <c r="N95">
+        <v>-30.16184650000001</v>
+      </c>
+      <c r="O95">
+        <v>-8.445317020000003</v>
+      </c>
+      <c r="P95">
+        <v>-21.71652948000001</v>
+      </c>
+      <c r="Q95">
+        <v>-17.70652948000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.588966667943031</v>
+      </c>
+      <c r="T95">
+        <v>12.2810734733693</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01493949824910493</v>
+      </c>
+      <c r="W95">
+        <v>0.1809556141716394</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.05335535088966048</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2112603879356368</v>
+      </c>
+      <c r="C96">
+        <v>-129.0084838258017</v>
+      </c>
+      <c r="D96">
+        <v>35.50151617419827</v>
+      </c>
+      <c r="E96">
+        <v>147.01</v>
+      </c>
+      <c r="F96">
+        <v>175.31</v>
+      </c>
+      <c r="G96">
+        <v>10.8</v>
+      </c>
+      <c r="H96">
+        <v>158.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>5.71</v>
+      </c>
+      <c r="K96">
+        <v>4.01</v>
+      </c>
+      <c r="L96">
+        <v>1.7</v>
+      </c>
+      <c r="M96">
+        <v>32.204447</v>
+      </c>
+      <c r="N96">
+        <v>-30.504447</v>
+      </c>
+      <c r="O96">
+        <v>-8.541245160000001</v>
+      </c>
+      <c r="P96">
+        <v>-21.96320184</v>
+      </c>
+      <c r="Q96">
+        <v>-17.95320184000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6855777792668698</v>
+      </c>
+      <c r="T96">
+        <v>14.32791905226419</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01478056741666764</v>
+      </c>
+      <c r="W96">
+        <v>0.1809848097655581</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.05278774077381299</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2130043879356368</v>
+      </c>
+      <c r="C97">
+        <v>-131.1774274218885</v>
+      </c>
+      <c r="D97">
+        <v>35.19757257811152</v>
+      </c>
+      <c r="E97">
+        <v>148.875</v>
+      </c>
+      <c r="F97">
+        <v>177.175</v>
+      </c>
+      <c r="G97">
+        <v>10.8</v>
+      </c>
+      <c r="H97">
+        <v>158.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>5.71</v>
+      </c>
+      <c r="K97">
+        <v>4.01</v>
+      </c>
+      <c r="L97">
+        <v>1.7</v>
+      </c>
+      <c r="M97">
+        <v>32.54704750000001</v>
+      </c>
+      <c r="N97">
+        <v>-30.84704750000001</v>
+      </c>
+      <c r="O97">
+        <v>-8.637173300000002</v>
+      </c>
+      <c r="P97">
+        <v>-22.2098742</v>
+      </c>
+      <c r="Q97">
+        <v>-18.1998742</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.820833335120244</v>
+      </c>
+      <c r="T97">
+        <v>17.19350286271704</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01462498249649219</v>
+      </c>
+      <c r="W97">
+        <v>0.1810133907153944</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.05223208034461491</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2147483879356368</v>
+      </c>
+      <c r="C98">
+        <v>-133.3412108155817</v>
+      </c>
+      <c r="D98">
+        <v>34.89878918441823</v>
+      </c>
+      <c r="E98">
+        <v>150.74</v>
+      </c>
+      <c r="F98">
+        <v>179.04</v>
+      </c>
+      <c r="G98">
+        <v>10.8</v>
+      </c>
+      <c r="H98">
+        <v>158.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>5.71</v>
+      </c>
+      <c r="K98">
+        <v>4.01</v>
+      </c>
+      <c r="L98">
+        <v>1.7</v>
+      </c>
+      <c r="M98">
+        <v>32.889648</v>
+      </c>
+      <c r="N98">
+        <v>-31.189648</v>
+      </c>
+      <c r="O98">
+        <v>-8.733101440000002</v>
+      </c>
+      <c r="P98">
+        <v>-22.45654656</v>
+      </c>
+      <c r="Q98">
+        <v>-18.44654656</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.023716668900303</v>
+      </c>
+      <c r="T98">
+        <v>21.49187857839625</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.0144726389288204</v>
+      </c>
+      <c r="W98">
+        <v>0.1810413762287757</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.0516879961743586</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2164923879356368</v>
+      </c>
+      <c r="C99">
+        <v>-135.4999643117601</v>
+      </c>
+      <c r="D99">
+        <v>34.60503568823992</v>
+      </c>
+      <c r="E99">
+        <v>152.605</v>
+      </c>
+      <c r="F99">
+        <v>180.905</v>
+      </c>
+      <c r="G99">
+        <v>10.8</v>
+      </c>
+      <c r="H99">
+        <v>158.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>5.71</v>
+      </c>
+      <c r="K99">
+        <v>4.01</v>
+      </c>
+      <c r="L99">
+        <v>1.7</v>
+      </c>
+      <c r="M99">
+        <v>33.2322485</v>
+      </c>
+      <c r="N99">
+        <v>-31.5322485</v>
+      </c>
+      <c r="O99">
+        <v>-8.82902958</v>
+      </c>
+      <c r="P99">
+        <v>-22.70321892</v>
+      </c>
+      <c r="Q99">
+        <v>-18.69321892</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.361855558533737</v>
+      </c>
+      <c r="T99">
+        <v>28.65583810452833</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01432343646563669</v>
+      </c>
+      <c r="W99">
+        <v>0.1810687847212625</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.05115513023441676</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2182363879356368</v>
+      </c>
+      <c r="C100">
+        <v>-137.6538138646627</v>
+      </c>
+      <c r="D100">
+        <v>34.31618613533735</v>
+      </c>
+      <c r="E100">
+        <v>154.47</v>
+      </c>
+      <c r="F100">
+        <v>182.77</v>
+      </c>
+      <c r="G100">
+        <v>10.8</v>
+      </c>
+      <c r="H100">
+        <v>158.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>5.71</v>
+      </c>
+      <c r="K100">
+        <v>4.01</v>
+      </c>
+      <c r="L100">
+        <v>1.7</v>
+      </c>
+      <c r="M100">
+        <v>33.574849</v>
+      </c>
+      <c r="N100">
+        <v>-31.874849</v>
+      </c>
+      <c r="O100">
+        <v>-8.924957720000002</v>
+      </c>
+      <c r="P100">
+        <v>-22.94989128</v>
+      </c>
+      <c r="Q100">
+        <v>-18.93989128</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.038133337800606</v>
+      </c>
+      <c r="T100">
+        <v>42.98375715679249</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01417727895068121</v>
+      </c>
+      <c r="W100">
+        <v>0.1810956338567599</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.05063313910957568</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2199803879356368</v>
+      </c>
+      <c r="C101">
+        <v>-139.8028812579613</v>
+      </c>
+      <c r="D101">
+        <v>34.03211874203866</v>
+      </c>
+      <c r="E101">
+        <v>156.335</v>
+      </c>
+      <c r="F101">
+        <v>184.635</v>
+      </c>
+      <c r="G101">
+        <v>10.8</v>
+      </c>
+      <c r="H101">
+        <v>158.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>5.71</v>
+      </c>
+      <c r="K101">
+        <v>4.01</v>
+      </c>
+      <c r="L101">
+        <v>1.7</v>
+      </c>
+      <c r="M101">
+        <v>33.9174495</v>
+      </c>
+      <c r="N101">
+        <v>-32.21744949999999</v>
+      </c>
+      <c r="O101">
+        <v>-9.02088586</v>
+      </c>
+      <c r="P101">
+        <v>-23.19656363999999</v>
+      </c>
+      <c r="Q101">
+        <v>-19.18656364</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.066966675601211</v>
+      </c>
+      <c r="T101">
+        <v>85.96751431358499</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01403407411279554</v>
+      </c>
+      <c r="W101">
+        <v>0.1811219405854795</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.05012169325998417</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
